--- a/Letopis 2019/Data for Letopis/Гидрология южной губы/hydrology_2019.xlsx
+++ b/Letopis 2019/Data for Letopis/Гидрология южной губы/hydrology_2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22755" windowHeight="11895"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -36,15 +36,6 @@
   </si>
   <si>
     <t>Water_Temp</t>
-  </si>
-  <si>
-    <t>Air_Temp_rp5</t>
-  </si>
-  <si>
-    <t>Wind_dir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind_speed </t>
   </si>
   <si>
     <t>NA</t>
@@ -84,12 +75,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="h:mm"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,9 +90,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,51 +172,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -176,61 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +205,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,31 +243,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,49 +333,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,13 +357,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,55 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,26 +437,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,22 +465,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,17 +511,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,218 +539,221 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="Примечание" xfId="14" builtinId="10"/>
+    <cellStyle name="40% — Акцент4" xfId="15" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1029,20 +1022,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J322"/>
+  <dimension ref="A1:I322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="M297" sqref="M297"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.375"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="10.3796296296296"/>
+    <col min="7" max="7" width="12.1296296296296" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1064,17 +1057,8 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>43617</v>
       </c>
@@ -1088,16 +1072,17 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3">
+        <v>7.8504</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>43617</v>
       </c>
@@ -1111,16 +1096,17 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6.848</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>43618</v>
       </c>
@@ -1134,17 +1120,18 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="3">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3">
+        <v>8.79</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5">
         <v>43618</v>
       </c>
       <c r="B5" s="2">
@@ -1157,17 +1144,18 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3">
+        <v>8.4768</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
         <v>43618</v>
       </c>
       <c r="B6" s="2">
@@ -1180,17 +1168,18 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3">
+        <v>7.7878</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
         <v>43619</v>
       </c>
       <c r="B7" s="2">
@@ -1203,40 +1192,42 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3">
+        <v>8.2889</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
         <v>43619</v>
       </c>
       <c r="B8" s="2">
         <v>0.5</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3">
+        <v>7.5372</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5">
         <v>43619</v>
       </c>
       <c r="B9" s="2">
@@ -1249,17 +1240,18 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>7.6625</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5">
         <v>43620</v>
       </c>
       <c r="B10" s="2">
@@ -1272,17 +1264,18 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8.2263</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
         <v>43620</v>
       </c>
       <c r="B11" s="2">
@@ -1295,17 +1288,18 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7.5998</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5">
         <v>43620</v>
       </c>
       <c r="B12" s="2">
@@ -1318,17 +1312,18 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3">
+        <v>7.3492</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
         <v>43621</v>
       </c>
       <c r="B13" s="2">
@@ -1341,40 +1336,42 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3">
+        <v>7.7878</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5">
         <v>43621</v>
       </c>
       <c r="B14" s="2">
         <v>0.5</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="3">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5.7828</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5">
         <v>43621</v>
       </c>
       <c r="B15" s="2">
@@ -1387,17 +1384,18 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6.66</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5">
         <v>43622</v>
       </c>
       <c r="B16" s="2">
@@ -1410,17 +1408,18 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="3">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3">
+        <v>7.7878</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="5">
         <v>43622</v>
       </c>
       <c r="B17" s="2">
@@ -1433,17 +1432,18 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="3">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6.7227</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="5">
         <v>43622</v>
       </c>
       <c r="B18" s="2">
@@ -1456,17 +1456,18 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="3">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3">
+        <v>8.2889</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5">
         <v>43623</v>
       </c>
       <c r="B19" s="2">
@@ -1479,17 +1480,18 @@
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3">
+        <v>8.4768</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="5">
         <v>43623</v>
       </c>
       <c r="B20" s="2">
@@ -1502,40 +1504,42 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="3">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3">
+        <v>7.0359</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5">
         <v>43623</v>
       </c>
       <c r="B21" s="2">
         <v>0.75</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="3">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3">
+        <v>14.1125</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="5">
         <v>43624</v>
       </c>
       <c r="B22" s="2">
@@ -1548,17 +1552,18 @@
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="3">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10.4811</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5">
         <v>43624</v>
       </c>
       <c r="B23" s="2">
@@ -1571,17 +1576,18 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="3">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10.0427</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5">
         <v>43624</v>
       </c>
       <c r="B24" s="2">
@@ -1594,17 +1600,18 @@
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="3">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3">
+        <v>16.0527</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5">
         <v>43625</v>
       </c>
       <c r="B25" s="2">
@@ -1617,17 +1624,18 @@
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="3">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3">
+        <v>8.8527</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5">
         <v>43625</v>
       </c>
       <c r="B26" s="2">
@@ -1640,16 +1648,17 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3">
+        <v>9.4164</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>43625</v>
       </c>
@@ -1663,16 +1672,17 @@
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="G27" s="3">
+        <v>12.8605</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>43626</v>
       </c>
@@ -1686,17 +1696,18 @@
         <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="3">
+        <v>7</v>
+      </c>
+      <c r="G28" s="3">
+        <v>9.7296</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="5">
         <v>43626</v>
       </c>
       <c r="B29" s="2">
@@ -1709,17 +1720,18 @@
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="3">
+        <v>7</v>
+      </c>
+      <c r="G29" s="3">
+        <v>9.9801</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="5">
         <v>43626</v>
       </c>
       <c r="B30" s="2">
@@ -1732,17 +1744,18 @@
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="3">
+        <v>7</v>
+      </c>
+      <c r="G30" s="3">
+        <v>16.1153</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="5">
         <v>43627</v>
       </c>
       <c r="B31" s="2">
@@ -1755,17 +1768,18 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="3">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10.9195</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="5">
         <v>43627</v>
       </c>
       <c r="B32" s="2">
@@ -1778,17 +1792,18 @@
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="3">
+        <v>7</v>
+      </c>
+      <c r="G32" s="3">
+        <v>9.479</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5">
         <v>43627</v>
       </c>
       <c r="B33" s="2">
@@ -1801,17 +1816,18 @@
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="3">
+        <v>7</v>
+      </c>
+      <c r="G33" s="3">
+        <v>10.1054</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="5">
         <v>43628</v>
       </c>
       <c r="B34" s="2">
@@ -1824,16 +1840,17 @@
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3">
+        <v>9.2911</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>43628</v>
       </c>
@@ -1847,17 +1864,18 @@
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="3">
+        <v>7</v>
+      </c>
+      <c r="G35" s="3">
+        <v>8.4768</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="5">
         <v>43628</v>
       </c>
       <c r="B36" s="2">
@@ -1870,17 +1888,18 @@
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="3">
+        <v>7</v>
+      </c>
+      <c r="G36" s="3">
+        <v>9.479</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="5">
         <v>43629</v>
       </c>
       <c r="B37" s="2">
@@ -1893,17 +1912,18 @@
         <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="3">
+        <v>7</v>
+      </c>
+      <c r="G37" s="3">
+        <v>8.79</v>
+      </c>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="5">
         <v>43629</v>
       </c>
       <c r="B38" s="2">
@@ -1916,17 +1936,18 @@
         <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="3">
+        <v>7</v>
+      </c>
+      <c r="G38" s="3">
+        <v>9.8548</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5">
         <v>43629</v>
       </c>
       <c r="B39" s="2">
@@ -1939,17 +1960,18 @@
         <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="3">
+        <v>7</v>
+      </c>
+      <c r="G39" s="3">
+        <v>11.6083</v>
+      </c>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5">
         <v>43630</v>
       </c>
       <c r="B40" s="2">
@@ -1962,17 +1984,18 @@
         <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="3">
+        <v>7</v>
+      </c>
+      <c r="G40" s="3">
+        <v>14.1125</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5">
         <v>43630</v>
       </c>
       <c r="B41" s="2">
@@ -1985,16 +2008,17 @@
         <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="G41" s="3">
+        <v>10.2932</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>43630</v>
       </c>
@@ -2008,16 +2032,17 @@
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="G42" s="3">
+        <v>8.5395</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>43631</v>
       </c>
@@ -2031,16 +2056,17 @@
         <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="G43" s="3">
+        <v>9.2911</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>43631</v>
       </c>
@@ -2054,16 +2080,17 @@
         <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="G44" s="3">
+        <v>8.7274</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43631</v>
       </c>
@@ -2077,16 +2104,17 @@
         <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="G45" s="3">
+        <v>8.2889</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>43631</v>
       </c>
@@ -2100,17 +2128,18 @@
         <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="3">
+      <c r="G46" s="3">
+        <v>10.2932</v>
+      </c>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="5">
         <v>43632</v>
       </c>
       <c r="B47" s="2">
@@ -2123,17 +2152,18 @@
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="3">
+      <c r="G47" s="3">
+        <v>9.6669</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="5">
         <v>43632</v>
       </c>
       <c r="B48" s="2">
@@ -2146,17 +2176,18 @@
         <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="3">
+      <c r="G48" s="3">
+        <v>7.7878</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="5">
         <v>43632</v>
       </c>
       <c r="B49" s="2">
@@ -2169,17 +2200,18 @@
         <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="3">
+      <c r="G49" s="3">
+        <v>6.472</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="5">
         <v>43632</v>
       </c>
       <c r="B50" s="2">
@@ -2192,17 +2224,18 @@
         <v>25</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="3">
+      <c r="G50" s="3">
+        <v>9.1032</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="5">
         <v>43633</v>
       </c>
       <c r="B51" s="2">
@@ -2215,17 +2248,18 @@
         <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="3">
+      <c r="G51" s="3">
+        <v>9.1032</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="5">
         <v>43633</v>
       </c>
       <c r="B52" s="2">
@@ -2238,17 +2272,18 @@
         <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="3">
+      <c r="G52" s="3">
+        <v>9.1659</v>
+      </c>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="5">
         <v>43633</v>
       </c>
       <c r="B53" s="2">
@@ -2261,17 +2296,18 @@
         <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
-      <c r="G53" s="1"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="3">
+      <c r="G53" s="3">
+        <v>8.5395</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="5">
         <v>43633</v>
       </c>
       <c r="B54" s="2">
@@ -2284,17 +2320,18 @@
         <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="3">
+      <c r="G54" s="3">
+        <v>11.5457</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="5">
         <v>43634</v>
       </c>
       <c r="B55" s="2">
@@ -2307,17 +2344,18 @@
         <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="3">
+      <c r="G55" s="3">
+        <v>9.9801</v>
+      </c>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5">
         <v>43634</v>
       </c>
       <c r="B56" s="2">
@@ -2330,17 +2368,18 @@
         <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="3">
+      <c r="G56" s="3">
+        <v>8.79</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="5">
         <v>43634</v>
       </c>
       <c r="B57" s="2">
@@ -2353,17 +2392,18 @@
         <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="3">
+      <c r="G57" s="3">
+        <v>8.1636</v>
+      </c>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="5">
         <v>43634</v>
       </c>
       <c r="B58" s="2">
@@ -2376,17 +2416,18 @@
         <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="3">
+      <c r="G58" s="3">
+        <v>10.8569</v>
+      </c>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="5">
         <v>43635</v>
       </c>
       <c r="B59" s="2">
@@ -2399,17 +2440,18 @@
         <v>27</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="3">
+      <c r="G59" s="3">
+        <v>10.2306</v>
+      </c>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="5">
         <v>43635</v>
       </c>
       <c r="B60" s="2">
@@ -2422,17 +2464,18 @@
         <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="3">
+      <c r="G60" s="3">
+        <v>10.6064</v>
+      </c>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="5">
         <v>43635</v>
       </c>
       <c r="B61" s="2">
@@ -2445,17 +2488,18 @@
         <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="3">
+      <c r="G61" s="3">
+        <v>10.9821</v>
+      </c>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="5">
         <v>43635</v>
       </c>
       <c r="B62" s="2">
@@ -2468,17 +2512,18 @@
         <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
-      <c r="G62" s="1"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="3">
+      <c r="G62" s="3">
+        <v>6.66</v>
+      </c>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="5">
         <v>43636</v>
       </c>
       <c r="B63" s="2">
@@ -2491,17 +2536,18 @@
         <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
-      <c r="G63" s="1"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="3">
+      <c r="G63" s="3">
+        <v>9.1032</v>
+      </c>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="5">
         <v>43636</v>
       </c>
       <c r="B64" s="2">
@@ -2514,17 +2560,18 @@
         <v>30</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F64">
         <v>2</v>
       </c>
-      <c r="G64" s="1"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="3">
+      <c r="G64" s="3">
+        <v>8.5395</v>
+      </c>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="5">
         <v>43636</v>
       </c>
       <c r="B65" s="2">
@@ -2537,17 +2584,18 @@
         <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="3">
+      <c r="G65" s="3">
+        <v>8.5395</v>
+      </c>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="5">
         <v>43636</v>
       </c>
       <c r="B66" s="2">
@@ -2560,17 +2608,18 @@
         <v>25</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F66">
         <v>2</v>
       </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="3">
+      <c r="G66" s="3">
+        <v>10.8569</v>
+      </c>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="5">
         <v>43637</v>
       </c>
       <c r="B67" s="2">
@@ -2583,17 +2632,18 @@
         <v>27</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="3">
+      <c r="G67" s="3">
+        <v>9.4164</v>
+      </c>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="5">
         <v>43637</v>
       </c>
       <c r="B68" s="2">
@@ -2606,17 +2656,18 @@
         <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="3">
+      <c r="G68" s="3">
+        <v>9.8548</v>
+      </c>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="5">
         <v>43637</v>
       </c>
       <c r="B69" s="2">
@@ -2629,17 +2680,18 @@
         <v>27</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F69">
         <v>1</v>
       </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="3">
+      <c r="G69" s="3">
+        <v>10.168</v>
+      </c>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="5">
         <v>43637</v>
       </c>
       <c r="B70" s="2">
@@ -2652,17 +2704,18 @@
         <v>28</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F70">
         <v>3</v>
       </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="3">
+      <c r="G70" s="3">
+        <v>9.6043</v>
+      </c>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="5">
         <v>43638</v>
       </c>
       <c r="B71" s="2">
@@ -2675,17 +2728,18 @@
         <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="3">
+      <c r="G71" s="3">
+        <v>10.2932</v>
+      </c>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="5">
         <v>43638</v>
       </c>
       <c r="B72" s="2">
@@ -2698,17 +2752,18 @@
         <v>28</v>
       </c>
       <c r="E72" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F72">
         <v>3</v>
       </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="3">
+      <c r="G72" s="3">
+        <v>9.3538</v>
+      </c>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="5">
         <v>43638</v>
       </c>
       <c r="B73" s="2">
@@ -2721,17 +2776,18 @@
         <v>27</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="3">
+      <c r="G73" s="3">
+        <v>9.9175</v>
+      </c>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="5">
         <v>43638</v>
       </c>
       <c r="B74" s="2">
@@ -2744,17 +2800,18 @@
         <v>25</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="3">
+      <c r="G74" s="3">
+        <v>9.8548</v>
+      </c>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="5">
         <v>43639</v>
       </c>
       <c r="B75" s="2">
@@ -2767,17 +2824,18 @@
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F75">
         <v>1</v>
       </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="3">
+      <c r="G75" s="3">
+        <v>9.8548</v>
+      </c>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="5">
         <v>43639</v>
       </c>
       <c r="B76" s="2">
@@ -2790,17 +2848,18 @@
         <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="3">
+      <c r="G76" s="3">
+        <v>9.4164</v>
+      </c>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="5">
         <v>43639</v>
       </c>
       <c r="B77" s="2">
@@ -2813,17 +2872,18 @@
         <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="3">
+      <c r="G77" s="3">
+        <v>9.7296</v>
+      </c>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="5">
         <v>43639</v>
       </c>
       <c r="B78" s="2">
@@ -2836,17 +2896,18 @@
         <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
-      <c r="G78" s="1"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="3">
+      <c r="G78" s="3">
+        <v>9.9175</v>
+      </c>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="5">
         <v>43640</v>
       </c>
       <c r="B79" s="2">
@@ -2859,17 +2920,18 @@
         <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
-      <c r="G79" s="1"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="3">
+      <c r="G79" s="3">
+        <v>9.2911</v>
+      </c>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="5">
         <v>43640</v>
       </c>
       <c r="B80" s="2">
@@ -2882,17 +2944,18 @@
         <v>26</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="3">
+      <c r="G80" s="3">
+        <v>9.0406</v>
+      </c>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="5">
         <v>43640</v>
       </c>
       <c r="B81" s="2">
@@ -2905,17 +2968,18 @@
         <v>25</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
-      <c r="G81" s="1"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="3">
+      <c r="G81" s="3">
+        <v>9.6043</v>
+      </c>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="5">
         <v>43640</v>
       </c>
       <c r="B82" s="2">
@@ -2928,17 +2992,18 @@
         <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
-      <c r="G82" s="1"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="3">
+      <c r="G82" s="3">
+        <v>10.669</v>
+      </c>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="5">
         <v>43641</v>
       </c>
       <c r="B83" s="2">
@@ -2951,17 +3016,18 @@
         <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
-      <c r="G83" s="1"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="3">
+      <c r="G83" s="3">
+        <v>10.8569</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="5">
         <v>43641</v>
       </c>
       <c r="B84" s="2">
@@ -2974,17 +3040,18 @@
         <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
-      <c r="G84" s="1"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="3">
+      <c r="G84" s="3">
+        <v>11.0447</v>
+      </c>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="5">
         <v>43641</v>
       </c>
       <c r="B85" s="2">
@@ -2997,17 +3064,18 @@
         <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F85">
         <v>2</v>
       </c>
-      <c r="G85" s="1"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="3">
+      <c r="G85" s="3">
+        <v>11.2952</v>
+      </c>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="5">
         <v>43641</v>
       </c>
       <c r="B86" s="2">
@@ -3020,17 +3088,18 @@
         <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
-      <c r="G86" s="1"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="3">
+      <c r="G86" s="3">
+        <v>11.6083</v>
+      </c>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="5">
         <v>43642</v>
       </c>
       <c r="B87" s="2">
@@ -3043,17 +3112,18 @@
         <v>23</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
-      <c r="G87" s="1"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="3">
+      <c r="G87" s="3">
+        <v>12.1718</v>
+      </c>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="5">
         <v>43642</v>
       </c>
       <c r="B88" s="2">
@@ -3066,17 +3136,18 @@
         <v>25</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
-      <c r="G88" s="1"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="3">
+      <c r="G88" s="3">
+        <v>11.7961</v>
+      </c>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="5">
         <v>43642</v>
       </c>
       <c r="B89" s="2">
@@ -3089,17 +3160,18 @@
         <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F89">
         <v>2</v>
       </c>
-      <c r="G89" s="1"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="3">
+      <c r="G89" s="3">
+        <v>12.8605</v>
+      </c>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="5">
         <v>43642</v>
       </c>
       <c r="B90" s="2">
@@ -3112,17 +3184,18 @@
         <v>25</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
-      <c r="G90" s="1"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="3">
+      <c r="G90" s="3">
+        <v>11.7961</v>
+      </c>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="5">
         <v>43643</v>
       </c>
       <c r="B91" s="2">
@@ -3135,17 +3208,18 @@
         <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
-      <c r="G91" s="1"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="3">
+      <c r="G91" s="3">
+        <v>12.4848</v>
+      </c>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="5">
         <v>43643</v>
       </c>
       <c r="B92" s="2">
@@ -3158,17 +3232,18 @@
         <v>23</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
-      <c r="G92" s="1"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="3">
+      <c r="G92" s="3">
+        <v>12.6727</v>
+      </c>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="5">
         <v>43643</v>
       </c>
       <c r="B93" s="2">
@@ -3181,17 +3256,18 @@
         <v>23</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F93">
         <v>1</v>
       </c>
-      <c r="G93" s="1"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="3">
+      <c r="G93" s="3">
+        <v>13.1735</v>
+      </c>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="5">
         <v>43643</v>
       </c>
       <c r="B94" s="2">
@@ -3204,17 +3280,18 @@
         <v>23</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F94">
         <v>2</v>
       </c>
-      <c r="G94" s="1"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="3">
+      <c r="G94" s="3">
+        <v>12.6101</v>
+      </c>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="5">
         <v>43644</v>
       </c>
       <c r="B95" s="2">
@@ -3227,17 +3304,18 @@
         <v>22</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
-      <c r="G95" s="1"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="3">
+      <c r="G95" s="3">
+        <v>12.297</v>
+      </c>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="5">
         <v>43644</v>
       </c>
       <c r="B96" s="2">
@@ -3250,17 +3328,18 @@
         <v>21</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
-      <c r="G96" s="1"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="3">
+      <c r="G96" s="3">
+        <v>12.2344</v>
+      </c>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="5">
         <v>43644</v>
       </c>
       <c r="B97" s="2">
@@ -3273,17 +3352,18 @@
         <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
-      <c r="G97" s="1"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="3">
+      <c r="G97" s="3">
+        <v>11.5457</v>
+      </c>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="5">
         <v>43644</v>
       </c>
       <c r="B98" s="2">
@@ -3296,17 +3376,18 @@
         <v>23</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
-      <c r="G98" s="1"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="3">
+      <c r="G98" s="3">
+        <v>12.7979</v>
+      </c>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="5">
         <v>43645</v>
       </c>
       <c r="B99" s="2">
@@ -3319,17 +3400,18 @@
         <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
-      <c r="G99" s="1"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="3">
+      <c r="G99" s="3">
+        <v>13.0483</v>
+      </c>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="5">
         <v>43645</v>
       </c>
       <c r="B100" s="2">
@@ -3342,17 +3424,18 @@
         <v>23</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F100">
         <v>3</v>
       </c>
-      <c r="G100" s="1"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="4"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="3">
+      <c r="G100" s="3">
+        <v>12.8605</v>
+      </c>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="5">
         <v>43645</v>
       </c>
       <c r="B101" s="2">
@@ -3365,17 +3448,18 @@
         <v>21</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F101">
         <v>3</v>
       </c>
-      <c r="G101" s="1"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="4"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="3">
+      <c r="G101" s="3">
+        <v>13.0483</v>
+      </c>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="5">
         <v>43645</v>
       </c>
       <c r="B102" s="2">
@@ -3388,17 +3472,18 @@
         <v>20</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F102">
         <v>2</v>
       </c>
-      <c r="G102" s="1"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="4"/>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="3">
+      <c r="G102" s="3">
+        <v>13.2361</v>
+      </c>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="5">
         <v>43646</v>
       </c>
       <c r="B103" s="2">
@@ -3411,17 +3496,18 @@
         <v>25</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
-      <c r="G103" s="1"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="4"/>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="3">
+      <c r="G103" s="3">
+        <v>11.3578</v>
+      </c>
+      <c r="H103" s="4"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="5">
         <v>43646</v>
       </c>
       <c r="B104" s="2">
@@ -3434,17 +3520,18 @@
         <v>25</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F104">
         <v>1</v>
       </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="4"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="3">
+      <c r="G104" s="3">
+        <v>9.9175</v>
+      </c>
+      <c r="H104" s="4"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="5">
         <v>43646</v>
       </c>
       <c r="B105" s="2">
@@ -3457,17 +3544,18 @@
         <v>25</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F105">
         <v>2</v>
       </c>
-      <c r="G105" s="1"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="4"/>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106" s="3">
+      <c r="G105" s="3">
+        <v>9.1032</v>
+      </c>
+      <c r="H105" s="4"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="5">
         <v>43646</v>
       </c>
       <c r="B106" s="2">
@@ -3480,17 +3568,18 @@
         <v>25</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
-      <c r="G106" s="1"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="4"/>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="3">
+      <c r="G106" s="3">
+        <v>10.4185</v>
+      </c>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="5">
         <v>43647</v>
       </c>
       <c r="B107" s="2">
@@ -3503,17 +3592,18 @@
         <v>21</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
-      <c r="G107" s="1"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="4"/>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108" s="3">
+      <c r="G107" s="3">
+        <v>10.1054</v>
+      </c>
+      <c r="H107" s="4"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="5">
         <v>43647</v>
       </c>
       <c r="B108" s="2">
@@ -3526,17 +3616,18 @@
         <v>22</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
-      <c r="G108" s="1"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="4"/>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="3">
+      <c r="G108" s="3">
+        <v>10.669</v>
+      </c>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="5">
         <v>43647</v>
       </c>
       <c r="B109" s="2">
@@ -3549,17 +3640,18 @@
         <v>22</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F109">
         <v>2.5</v>
       </c>
-      <c r="G109" s="1"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="4"/>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="3">
+      <c r="G109" s="3">
+        <v>11.4204</v>
+      </c>
+      <c r="H109" s="4"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="5">
         <v>43647</v>
       </c>
       <c r="B110" s="2">
@@ -3572,17 +3664,18 @@
         <v>22</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F110">
         <v>5.5</v>
       </c>
-      <c r="G110" s="1"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="4"/>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="3">
+      <c r="G110" s="3">
+        <v>11.2952</v>
+      </c>
+      <c r="H110" s="4"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="5">
         <v>43648</v>
       </c>
       <c r="B111" s="2">
@@ -3595,17 +3688,18 @@
         <v>23</v>
       </c>
       <c r="E111" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F111">
         <v>3</v>
       </c>
-      <c r="G111" s="1"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="4"/>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="3">
+      <c r="G111" s="3">
+        <v>11.17</v>
+      </c>
+      <c r="H111" s="4"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="5">
         <v>43648</v>
       </c>
       <c r="B112" s="2">
@@ -3618,17 +3712,18 @@
         <v>24</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
-      <c r="G112" s="1"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="4"/>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="3">
+      <c r="G112" s="3">
+        <v>10.9821</v>
+      </c>
+      <c r="H112" s="4"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="5">
         <v>43648</v>
       </c>
       <c r="B113" s="2">
@@ -3641,17 +3736,18 @@
         <v>24</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
-      <c r="G113" s="1"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="4"/>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="3">
+      <c r="G113" s="3">
+        <v>9.0406</v>
+      </c>
+      <c r="H113" s="4"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="5">
         <v>43648</v>
       </c>
       <c r="B114" s="2">
@@ -3664,17 +3760,18 @@
         <v>25</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
-      <c r="G114" s="1"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="4"/>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="3">
+      <c r="G114" s="3">
+        <v>9.1659</v>
+      </c>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="5">
         <v>43649</v>
       </c>
       <c r="B115" s="2">
@@ -3687,17 +3784,18 @@
         <v>25</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
-      <c r="G115" s="1"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="4"/>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="3">
+      <c r="G115" s="3">
+        <v>8.7274</v>
+      </c>
+      <c r="H115" s="4"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="5">
         <v>43649</v>
       </c>
       <c r="B116" s="2">
@@ -3710,17 +3808,18 @@
         <v>25</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
-      <c r="G116" s="1"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="4"/>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="3">
+      <c r="G116" s="3">
+        <v>9.2285</v>
+      </c>
+      <c r="H116" s="4"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="5">
         <v>43649</v>
       </c>
       <c r="B117" s="2">
@@ -3733,17 +3832,18 @@
         <v>25</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
-      <c r="G117" s="1"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="4"/>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="3">
+      <c r="G117" s="3">
+        <v>9.4164</v>
+      </c>
+      <c r="H117" s="4"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="5">
         <v>43649</v>
       </c>
       <c r="B118" s="2">
@@ -3756,17 +3856,18 @@
         <v>25</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F118">
         <v>0</v>
       </c>
-      <c r="G118" s="1"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="4"/>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119" s="3">
+      <c r="G118" s="3">
+        <v>10.2306</v>
+      </c>
+      <c r="H118" s="4"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="5">
         <v>43650</v>
       </c>
       <c r="B119" s="2">
@@ -3779,17 +3880,18 @@
         <v>25</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F119">
         <v>0.5</v>
       </c>
-      <c r="G119" s="1"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="4"/>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="3">
+      <c r="G119" s="3">
+        <v>9.0406</v>
+      </c>
+      <c r="H119" s="4"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="5">
         <v>43650</v>
       </c>
       <c r="B120" s="2">
@@ -3802,17 +3904,18 @@
         <v>25</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
-      <c r="G120" s="1"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="4"/>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="3">
+      <c r="G120" s="3">
+        <v>9.7296</v>
+      </c>
+      <c r="H120" s="4"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="5">
         <v>43650</v>
       </c>
       <c r="B121" s="2">
@@ -3825,17 +3928,18 @@
         <v>25</v>
       </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F121">
         <v>1</v>
       </c>
-      <c r="G121" s="1"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="4"/>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="3">
+      <c r="G121" s="3">
+        <v>9.8548</v>
+      </c>
+      <c r="H121" s="4"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="5">
         <v>43650</v>
       </c>
       <c r="B122" s="2">
@@ -3848,17 +3952,18 @@
         <v>20</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F122">
         <v>0.5</v>
       </c>
-      <c r="G122" s="1"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="4"/>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="3">
+      <c r="G122" s="3">
+        <v>10.6064</v>
+      </c>
+      <c r="H122" s="4"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="5">
         <v>43651</v>
       </c>
       <c r="B123" s="2">
@@ -3871,17 +3976,18 @@
         <v>21</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F123">
         <v>1</v>
       </c>
-      <c r="G123" s="1"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="4"/>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="3">
+      <c r="G123" s="3">
+        <v>10.0427</v>
+      </c>
+      <c r="H123" s="4"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="5">
         <v>43651</v>
       </c>
       <c r="B124" s="2">
@@ -3894,17 +4000,18 @@
         <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F124">
         <v>1</v>
       </c>
-      <c r="G124" s="1"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="4"/>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125" s="3">
+      <c r="G124" s="3">
+        <v>10.2932</v>
+      </c>
+      <c r="H124" s="4"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="5">
         <v>43651</v>
       </c>
       <c r="B125" s="2">
@@ -3917,17 +4024,18 @@
         <v>22</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F125">
         <v>1</v>
       </c>
-      <c r="G125" s="1"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="4"/>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="3">
+      <c r="G125" s="3">
+        <v>9.8548</v>
+      </c>
+      <c r="H125" s="4"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="5">
         <v>43651</v>
       </c>
       <c r="B126" s="2">
@@ -3940,17 +4048,18 @@
         <v>22</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F126">
         <v>1</v>
       </c>
-      <c r="G126" s="1"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="4"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="3">
+      <c r="G126" s="3">
+        <v>10.2306</v>
+      </c>
+      <c r="H126" s="4"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="5">
         <v>43652</v>
       </c>
       <c r="B127" s="2">
@@ -3963,17 +4072,18 @@
         <v>21</v>
       </c>
       <c r="E127" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F127">
         <v>0.5</v>
       </c>
-      <c r="G127" s="1"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="4"/>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="3">
+      <c r="G127" s="3">
+        <v>9.8548</v>
+      </c>
+      <c r="H127" s="4"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="5">
         <v>43652</v>
       </c>
       <c r="B128" s="2">
@@ -3986,17 +4096,18 @@
         <v>22</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F128">
         <v>1</v>
       </c>
-      <c r="G128" s="1"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="4"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="3">
+      <c r="G128" s="3">
+        <v>9.5417</v>
+      </c>
+      <c r="H128" s="4"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="5">
         <v>43652</v>
       </c>
       <c r="B129" s="2">
@@ -4009,17 +4120,18 @@
         <v>22</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F129">
         <v>1</v>
       </c>
-      <c r="G129" s="1"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="4"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="3">
+      <c r="G129" s="3">
+        <v>9.6043</v>
+      </c>
+      <c r="H129" s="4"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="5">
         <v>43652</v>
       </c>
       <c r="B130" s="2">
@@ -4032,17 +4144,18 @@
         <v>21</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F130">
         <v>1</v>
       </c>
-      <c r="G130" s="1"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="4"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="3">
+      <c r="G130" s="3">
+        <v>9.3538</v>
+      </c>
+      <c r="H130" s="4"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="5">
         <v>43653</v>
       </c>
       <c r="B131" s="2">
@@ -4055,16 +4168,17 @@
         <v>23</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
-      <c r="G131" s="1"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="4"/>
-    </row>
-    <row r="132" spans="1:9">
+      <c r="G131" s="3">
+        <v>9.7922</v>
+      </c>
+      <c r="H131" s="4"/>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>43653</v>
       </c>
@@ -4078,17 +4192,18 @@
         <v>24</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F132">
         <v>1</v>
       </c>
-      <c r="G132" s="1"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="4"/>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="3">
+      <c r="G132" s="3">
+        <v>9.0406</v>
+      </c>
+      <c r="H132" s="4"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="5">
         <v>43653</v>
       </c>
       <c r="B133" s="2">
@@ -4101,17 +4216,18 @@
         <v>22</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F133">
         <v>1</v>
       </c>
-      <c r="G133" s="1"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="4"/>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="3">
+      <c r="G133" s="3">
+        <v>9.0406</v>
+      </c>
+      <c r="H133" s="4"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="5">
         <v>43653</v>
       </c>
       <c r="B134" s="2">
@@ -4124,17 +4240,18 @@
         <v>23</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
-      <c r="G134" s="1"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="4"/>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="3">
+      <c r="G134" s="3">
+        <v>10.7942</v>
+      </c>
+      <c r="H134" s="4"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="5">
         <v>43654</v>
       </c>
       <c r="B135" s="2">
@@ -4147,17 +4264,18 @@
         <v>23</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F135">
         <v>1</v>
       </c>
-      <c r="G135" s="1"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="4"/>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="3">
+      <c r="G135" s="3">
+        <v>7.6625</v>
+      </c>
+      <c r="H135" s="4"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="5">
         <v>43654</v>
       </c>
       <c r="B136" s="2">
@@ -4170,17 +4288,18 @@
         <v>24</v>
       </c>
       <c r="E136" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F136">
         <v>1</v>
       </c>
-      <c r="G136" s="1"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="4"/>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="3">
+      <c r="G136" s="3">
+        <v>8.1636</v>
+      </c>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="5">
         <v>43654</v>
       </c>
       <c r="B137" s="2">
@@ -4193,17 +4312,18 @@
         <v>24</v>
       </c>
       <c r="E137" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F137">
         <v>1</v>
       </c>
-      <c r="G137" s="1"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="4"/>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="3">
+      <c r="G137" s="3">
+        <v>7.7251</v>
+      </c>
+      <c r="H137" s="4"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="5">
         <v>43654</v>
       </c>
       <c r="B138" s="2">
@@ -4216,17 +4336,18 @@
         <v>24</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F138">
         <v>2</v>
       </c>
-      <c r="G138" s="1"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="4"/>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="3">
+      <c r="G138" s="3">
+        <v>9.9175</v>
+      </c>
+      <c r="H138" s="4"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="5">
         <v>43655</v>
       </c>
       <c r="B139" s="2">
@@ -4239,17 +4360,18 @@
         <v>24</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
-      <c r="G139" s="1"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="4"/>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="3">
+      <c r="G139" s="3">
+        <v>9.5417</v>
+      </c>
+      <c r="H139" s="4"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="5">
         <v>43655</v>
       </c>
       <c r="B140" s="2">
@@ -4262,17 +4384,18 @@
         <v>25</v>
       </c>
       <c r="E140" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F140">
         <v>1</v>
       </c>
-      <c r="G140" s="1"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="4"/>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="3">
+      <c r="G140" s="3">
+        <v>10.0427</v>
+      </c>
+      <c r="H140" s="4"/>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="5">
         <v>43655</v>
       </c>
       <c r="B141" s="2">
@@ -4285,17 +4408,18 @@
         <v>24</v>
       </c>
       <c r="E141" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F141">
         <v>0</v>
       </c>
-      <c r="G141" s="1"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="4"/>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="3">
+      <c r="G141" s="3">
+        <v>8.2889</v>
+      </c>
+      <c r="H141" s="4"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="5">
         <v>43655</v>
       </c>
       <c r="B142" s="2">
@@ -4308,17 +4432,18 @@
         <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F142">
         <v>1</v>
       </c>
-      <c r="G142" s="1"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="4"/>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="3">
+      <c r="G142" s="3">
+        <v>8.8527</v>
+      </c>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="5">
         <v>43656</v>
       </c>
       <c r="B143" s="2">
@@ -4331,17 +4456,18 @@
         <v>25</v>
       </c>
       <c r="E143" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F143">
         <v>1</v>
       </c>
-      <c r="G143" s="1"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="4"/>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="3">
+      <c r="G143" s="3">
+        <v>9.6669</v>
+      </c>
+      <c r="H143" s="4"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="5">
         <v>43656</v>
       </c>
       <c r="B144" s="2">
@@ -4354,17 +4480,18 @@
         <v>24</v>
       </c>
       <c r="E144" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F144">
         <v>1</v>
       </c>
-      <c r="G144" s="1"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="4"/>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="3">
+      <c r="G144" s="3">
+        <v>9.3538</v>
+      </c>
+      <c r="H144" s="4"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="5">
         <v>43656</v>
       </c>
       <c r="B145" s="2">
@@ -4377,17 +4504,18 @@
         <v>23</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F145">
         <v>1</v>
       </c>
-      <c r="G145" s="1"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="4"/>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="3">
+      <c r="G145" s="3">
+        <v>9.4164</v>
+      </c>
+      <c r="H145" s="4"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="5">
         <v>43656</v>
       </c>
       <c r="B146" s="2">
@@ -4400,17 +4528,18 @@
         <v>24</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
-      <c r="G146" s="1"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="4"/>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="3">
+      <c r="G146" s="3">
+        <v>9.2911</v>
+      </c>
+      <c r="H146" s="4"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="5">
         <v>43657</v>
       </c>
       <c r="B147" s="2">
@@ -4423,17 +4552,18 @@
         <v>23</v>
       </c>
       <c r="E147" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F147">
         <v>1</v>
       </c>
-      <c r="G147" s="1"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="4"/>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="3">
+      <c r="G147" s="3">
+        <v>9.7922</v>
+      </c>
+      <c r="H147" s="4"/>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" s="5">
         <v>43657</v>
       </c>
       <c r="B148" s="2">
@@ -4446,17 +4576,18 @@
         <v>23</v>
       </c>
       <c r="E148" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F148">
         <v>1</v>
       </c>
-      <c r="G148" s="1"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="4"/>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="3">
+      <c r="G148" s="3">
+        <v>9.6669</v>
+      </c>
+      <c r="H148" s="4"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="5">
         <v>43657</v>
       </c>
       <c r="B149" s="2">
@@ -4469,17 +4600,18 @@
         <v>22</v>
       </c>
       <c r="E149" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F149">
         <v>1</v>
       </c>
-      <c r="G149" s="1"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="4"/>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="3">
+      <c r="G149" s="3">
+        <v>9.6043</v>
+      </c>
+      <c r="H149" s="4"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="5">
         <v>43657</v>
       </c>
       <c r="B150" s="2">
@@ -4492,17 +4624,18 @@
         <v>22</v>
       </c>
       <c r="E150" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F150">
         <v>1</v>
       </c>
-      <c r="G150" s="1"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="4"/>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="3">
+      <c r="G150" s="3">
+        <v>9.9801</v>
+      </c>
+      <c r="H150" s="4"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="5">
         <v>43658</v>
       </c>
       <c r="B151" s="2">
@@ -4515,17 +4648,18 @@
         <v>23</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F151">
         <v>1</v>
       </c>
-      <c r="G151" s="1"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="4"/>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="3">
+      <c r="G151" s="3">
+        <v>9.8548</v>
+      </c>
+      <c r="H151" s="4"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="5">
         <v>43658</v>
       </c>
       <c r="B152" s="2">
@@ -4538,17 +4672,18 @@
         <v>23</v>
       </c>
       <c r="E152" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F152">
         <v>3</v>
       </c>
-      <c r="G152" s="1"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="4"/>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="3">
+      <c r="G152" s="3">
+        <v>9.0406</v>
+      </c>
+      <c r="H152" s="4"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="5">
         <v>43658</v>
       </c>
       <c r="B153" s="2">
@@ -4561,17 +4696,18 @@
         <v>23</v>
       </c>
       <c r="E153" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F153">
         <v>2</v>
       </c>
-      <c r="G153" s="1"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="4"/>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="3">
+      <c r="G153" s="3">
+        <v>9.2285</v>
+      </c>
+      <c r="H153" s="4"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="5">
         <v>43658</v>
       </c>
       <c r="B154" s="2">
@@ -4584,17 +4720,18 @@
         <v>24</v>
       </c>
       <c r="E154" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F154">
         <v>1</v>
       </c>
-      <c r="G154" s="1"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="4"/>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="3">
+      <c r="G154" s="3">
+        <v>8.101</v>
+      </c>
+      <c r="H154" s="4"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="5">
         <v>43659</v>
       </c>
       <c r="B155" s="2">
@@ -4607,17 +4744,18 @@
         <v>23</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F155">
         <v>1</v>
       </c>
-      <c r="G155" s="1"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="4"/>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="3">
+      <c r="G155" s="3">
+        <v>8.5395</v>
+      </c>
+      <c r="H155" s="4"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="5">
         <v>43659</v>
       </c>
       <c r="B156" s="2">
@@ -4630,17 +4768,18 @@
         <v>23</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F156">
         <v>1</v>
       </c>
-      <c r="G156" s="1"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="4"/>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="3">
+      <c r="G156" s="3">
+        <v>8.2889</v>
+      </c>
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="5">
         <v>43659</v>
       </c>
       <c r="B157" s="2">
@@ -4653,17 +4792,18 @@
         <v>23</v>
       </c>
       <c r="E157" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F157">
         <v>2</v>
       </c>
-      <c r="G157" s="1"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="4"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="3">
+      <c r="G157" s="3">
+        <v>8.4142</v>
+      </c>
+      <c r="H157" s="4"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="5">
         <v>43659</v>
       </c>
       <c r="B158" s="2">
@@ -4676,17 +4816,18 @@
         <v>24</v>
       </c>
       <c r="E158" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F158">
         <v>1</v>
       </c>
-      <c r="G158" s="1"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="4"/>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="3">
+      <c r="G158" s="3">
+        <v>9.1032</v>
+      </c>
+      <c r="H158" s="4"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="5">
         <v>43660</v>
       </c>
       <c r="B159" s="2">
@@ -4699,17 +4840,18 @@
         <v>25</v>
       </c>
       <c r="E159" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F159">
         <v>1</v>
       </c>
-      <c r="G159" s="1"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="4"/>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="3">
+      <c r="G159" s="3">
+        <v>9.479</v>
+      </c>
+      <c r="H159" s="4"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="5">
         <v>43660</v>
       </c>
       <c r="B160" s="2">
@@ -4722,17 +4864,18 @@
         <v>25</v>
       </c>
       <c r="E160" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F160">
         <v>1</v>
       </c>
-      <c r="G160" s="1"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="4"/>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="3">
+      <c r="G160" s="3">
+        <v>8.6021</v>
+      </c>
+      <c r="H160" s="4"/>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="5">
         <v>43660</v>
       </c>
       <c r="B161" s="2">
@@ -4745,17 +4888,18 @@
         <v>25</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F161">
         <v>1</v>
       </c>
-      <c r="G161" s="1"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="4"/>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="3">
+      <c r="G161" s="3">
+        <v>8.9153</v>
+      </c>
+      <c r="H161" s="4"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="5">
         <v>43660</v>
       </c>
       <c r="B162" s="2">
@@ -4768,17 +4912,18 @@
         <v>25</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F162">
         <v>1</v>
       </c>
-      <c r="G162" s="1"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="4"/>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="3">
+      <c r="G162" s="3">
+        <v>8.9153</v>
+      </c>
+      <c r="H162" s="4"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="5">
         <v>43661</v>
       </c>
       <c r="B163" s="2">
@@ -4791,17 +4936,18 @@
         <v>22</v>
       </c>
       <c r="E163" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F163">
         <v>1</v>
       </c>
-      <c r="G163" s="1"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="4"/>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="3">
+      <c r="G163" s="3">
+        <v>8.4142</v>
+      </c>
+      <c r="H163" s="4"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="5">
         <v>43661</v>
       </c>
       <c r="B164" s="2">
@@ -4814,17 +4960,18 @@
         <v>23</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F164">
         <v>1</v>
       </c>
-      <c r="G164" s="1"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="4"/>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="3">
+      <c r="G164" s="3">
+        <v>8.4142</v>
+      </c>
+      <c r="H164" s="4"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="5">
         <v>43661</v>
       </c>
       <c r="B165" s="2">
@@ -4837,17 +4984,18 @@
         <v>24</v>
       </c>
       <c r="E165" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F165">
         <v>1</v>
       </c>
-      <c r="G165" s="1"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="4"/>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="3">
+      <c r="G165" s="3">
+        <v>8.6021</v>
+      </c>
+      <c r="H165" s="4"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="5">
         <v>43661</v>
       </c>
       <c r="B166" s="2">
@@ -4860,17 +5008,18 @@
         <v>24</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F166">
         <v>1</v>
       </c>
-      <c r="G166" s="1"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="4"/>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="3">
+      <c r="G166" s="3">
+        <v>8.2889</v>
+      </c>
+      <c r="H166" s="4"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="5">
         <v>43662</v>
       </c>
       <c r="B167" s="2">
@@ -4883,17 +5032,18 @@
         <v>24</v>
       </c>
       <c r="E167" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F167">
         <v>1</v>
       </c>
-      <c r="G167" s="1"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="4"/>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="3">
+      <c r="G167" s="3">
+        <v>8.2889</v>
+      </c>
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="5">
         <v>43662</v>
       </c>
       <c r="B168" s="2">
@@ -4906,17 +5056,18 @@
         <v>23</v>
       </c>
       <c r="E168" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F168">
         <v>0</v>
       </c>
-      <c r="G168" s="1"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="4"/>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="3">
+      <c r="G168" s="3">
+        <v>8.8527</v>
+      </c>
+      <c r="H168" s="4"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="5">
         <v>43662</v>
       </c>
       <c r="B169" s="2">
@@ -4929,17 +5080,18 @@
         <v>23</v>
       </c>
       <c r="E169" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F169">
         <v>1</v>
       </c>
-      <c r="G169" s="1"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="4"/>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="A170" s="3">
+      <c r="G169" s="3">
+        <v>8.0383</v>
+      </c>
+      <c r="H169" s="4"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="5">
         <v>43662</v>
       </c>
       <c r="B170" s="2">
@@ -4952,17 +5104,18 @@
         <v>24</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F170">
         <v>1</v>
       </c>
-      <c r="G170" s="1"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="4"/>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="3">
+      <c r="G170" s="3">
+        <v>8.9153</v>
+      </c>
+      <c r="H170" s="4"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="5">
         <v>43663</v>
       </c>
       <c r="B171" s="2">
@@ -4975,17 +5128,18 @@
         <v>24</v>
       </c>
       <c r="E171" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F171">
         <v>1</v>
       </c>
-      <c r="G171" s="1"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="4"/>
-    </row>
-    <row r="172" spans="1:9">
-      <c r="A172" s="3">
+      <c r="G171" s="3">
+        <v>8.978</v>
+      </c>
+      <c r="H171" s="4"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="5">
         <v>43663</v>
       </c>
       <c r="B172" s="2">
@@ -4998,17 +5152,18 @@
         <v>23</v>
       </c>
       <c r="E172" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F172">
         <v>1</v>
       </c>
-      <c r="G172" s="1"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="4"/>
-    </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="3">
+      <c r="G172" s="3">
+        <v>8.5395</v>
+      </c>
+      <c r="H172" s="4"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="5">
         <v>43663</v>
       </c>
       <c r="B173" s="2">
@@ -5021,17 +5176,18 @@
         <v>23</v>
       </c>
       <c r="E173" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F173">
         <v>1</v>
       </c>
-      <c r="G173" s="1"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="4"/>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="3">
+      <c r="G173" s="3">
+        <v>8.5395</v>
+      </c>
+      <c r="H173" s="4"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="5">
         <v>43663</v>
       </c>
       <c r="B174" s="2">
@@ -5044,17 +5200,18 @@
         <v>23</v>
       </c>
       <c r="E174" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F174">
         <v>1</v>
       </c>
-      <c r="G174" s="1"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="4"/>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175" s="3">
+      <c r="G174" s="3">
+        <v>9.4164</v>
+      </c>
+      <c r="H174" s="4"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="5">
         <v>43664</v>
       </c>
       <c r="B175" s="2">
@@ -5067,17 +5224,18 @@
         <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F175">
         <v>1</v>
       </c>
-      <c r="G175" s="1"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="4"/>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="3">
+      <c r="G175" s="3">
+        <v>10.168</v>
+      </c>
+      <c r="H175" s="4"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="5">
         <v>43664</v>
       </c>
       <c r="B176" s="2">
@@ -5090,17 +5248,18 @@
         <v>23</v>
       </c>
       <c r="E176" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F176">
         <v>1</v>
       </c>
-      <c r="G176" s="1"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="4"/>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="3">
+      <c r="G176" s="3">
+        <v>9.1659</v>
+      </c>
+      <c r="H176" s="4"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="5">
         <v>43664</v>
       </c>
       <c r="B177" s="2">
@@ -5113,17 +5272,18 @@
         <v>24</v>
       </c>
       <c r="E177" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
-      <c r="G177" s="1"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="4"/>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="3">
+      <c r="G177" s="3">
+        <v>7.4119</v>
+      </c>
+      <c r="H177" s="4"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="5">
         <v>43664</v>
       </c>
       <c r="B178" s="2">
@@ -5136,17 +5296,18 @@
         <v>22</v>
       </c>
       <c r="E178" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F178">
         <v>0</v>
       </c>
-      <c r="G178" s="1"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="4"/>
-    </row>
-    <row r="179" spans="1:9">
-      <c r="A179" s="3">
+      <c r="G178" s="3">
+        <v>9.1659</v>
+      </c>
+      <c r="H178" s="4"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="5">
         <v>43665</v>
       </c>
       <c r="B179" s="2">
@@ -5159,17 +5320,18 @@
         <v>24</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F179">
         <v>1</v>
       </c>
-      <c r="G179" s="1"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="4"/>
-    </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="3">
+      <c r="G179" s="3">
+        <v>7.5372</v>
+      </c>
+      <c r="H179" s="4"/>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" s="5">
         <v>43665</v>
       </c>
       <c r="B180" s="2">
@@ -5182,17 +5344,18 @@
         <v>23</v>
       </c>
       <c r="E180" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F180">
         <v>2</v>
       </c>
-      <c r="G180" s="1"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="4"/>
-    </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="3">
+      <c r="G180" s="3">
+        <v>8.5395</v>
+      </c>
+      <c r="H180" s="4"/>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" s="5">
         <v>43665</v>
       </c>
       <c r="B181" s="2">
@@ -5205,17 +5368,18 @@
         <v>23</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F181">
         <v>1</v>
       </c>
-      <c r="G181" s="1"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="4"/>
-    </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="3">
+      <c r="G181" s="3">
+        <v>8.6021</v>
+      </c>
+      <c r="H181" s="4"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="5">
         <v>43665</v>
       </c>
       <c r="B182" s="2">
@@ -5228,17 +5392,18 @@
         <v>24</v>
       </c>
       <c r="E182" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F182">
         <v>1</v>
       </c>
-      <c r="G182" s="1"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="4"/>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="3">
+      <c r="G182" s="3">
+        <v>8.8527</v>
+      </c>
+      <c r="H182" s="4"/>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" s="5">
         <v>43666</v>
       </c>
       <c r="B183" s="2">
@@ -5251,17 +5416,18 @@
         <v>23</v>
       </c>
       <c r="E183" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F183">
         <v>1</v>
       </c>
-      <c r="G183" s="1"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="4"/>
-    </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="3">
+      <c r="G183" s="3">
+        <v>7.7251</v>
+      </c>
+      <c r="H183" s="4"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="5">
         <v>43666</v>
       </c>
       <c r="B184" s="2">
@@ -5274,17 +5440,18 @@
         <v>23</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F184">
         <v>1</v>
       </c>
-      <c r="G184" s="1"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="4"/>
-    </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="3">
+      <c r="G184" s="3">
+        <v>8.5395</v>
+      </c>
+      <c r="H184" s="4"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="5">
         <v>43666</v>
       </c>
       <c r="B185" s="2">
@@ -5297,17 +5464,18 @@
         <v>22</v>
       </c>
       <c r="E185" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F185">
         <v>1</v>
       </c>
-      <c r="G185" s="1"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="4"/>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="3">
+      <c r="G185" s="3">
+        <v>9.1659</v>
+      </c>
+      <c r="H185" s="4"/>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="5">
         <v>43666</v>
       </c>
       <c r="B186" s="2">
@@ -5320,17 +5488,18 @@
         <v>21</v>
       </c>
       <c r="E186" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F186">
         <v>1</v>
       </c>
-      <c r="G186" s="1"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="4"/>
-    </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="3">
+      <c r="G186" s="3">
+        <v>12.4848</v>
+      </c>
+      <c r="H186" s="4"/>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="5">
         <v>43667</v>
       </c>
       <c r="B187" s="2">
@@ -5343,17 +5512,18 @@
         <v>21</v>
       </c>
       <c r="E187" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
-      <c r="G187" s="1"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="4"/>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="3">
+      <c r="G187" s="3">
+        <v>9.4164</v>
+      </c>
+      <c r="H187" s="4"/>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="5">
         <v>43667</v>
       </c>
       <c r="B188" s="2">
@@ -5366,17 +5536,18 @@
         <v>21</v>
       </c>
       <c r="E188" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F188">
         <v>1</v>
       </c>
-      <c r="G188" s="1"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="4"/>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="3">
+      <c r="G188" s="3">
+        <v>9.5417</v>
+      </c>
+      <c r="H188" s="4"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="5">
         <v>43667</v>
       </c>
       <c r="B189" s="2">
@@ -5389,17 +5560,18 @@
         <v>22</v>
       </c>
       <c r="E189" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
-      <c r="G189" s="1"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="4"/>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="3">
+      <c r="G189" s="3">
+        <v>9.6669</v>
+      </c>
+      <c r="H189" s="4"/>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="5">
         <v>43667</v>
       </c>
       <c r="B190" s="2">
@@ -5412,17 +5584,18 @@
         <v>21</v>
       </c>
       <c r="E190" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F190">
         <v>1</v>
       </c>
-      <c r="G190" s="1"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="4"/>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="A191" s="3">
+      <c r="G190" s="3">
+        <v>11.7335</v>
+      </c>
+      <c r="H190" s="4"/>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="5">
         <v>43668</v>
       </c>
       <c r="B191" s="2">
@@ -5435,17 +5608,18 @@
         <v>21</v>
       </c>
       <c r="E191" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F191">
         <v>1</v>
       </c>
-      <c r="G191" s="1"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="4"/>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="3">
+      <c r="G191" s="3">
+        <v>10.3559</v>
+      </c>
+      <c r="H191" s="4"/>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="5">
         <v>43668</v>
       </c>
       <c r="B192" s="2">
@@ -5458,17 +5632,18 @@
         <v>22</v>
       </c>
       <c r="E192" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
-      <c r="G192" s="1"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="4"/>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="3">
+      <c r="G192" s="3">
+        <v>11.2326</v>
+      </c>
+      <c r="H192" s="4"/>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="5">
         <v>43668</v>
       </c>
       <c r="B193" s="2">
@@ -5481,17 +5656,18 @@
         <v>21</v>
       </c>
       <c r="E193" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
-      <c r="G193" s="1"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="4"/>
-    </row>
-    <row r="194" spans="1:9">
-      <c r="A194" s="3">
+      <c r="G193" s="3">
+        <v>11.8587</v>
+      </c>
+      <c r="H193" s="4"/>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="5">
         <v>43668</v>
       </c>
       <c r="B194" s="2">
@@ -5504,17 +5680,18 @@
         <v>22</v>
       </c>
       <c r="E194" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
-      <c r="G194" s="1"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="4"/>
-    </row>
-    <row r="195" spans="1:9">
-      <c r="A195" s="3">
+      <c r="G194" s="3">
+        <v>11.483</v>
+      </c>
+      <c r="H194" s="4"/>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="5">
         <v>43669</v>
       </c>
       <c r="B195" s="2">
@@ -5527,17 +5704,18 @@
         <v>22</v>
       </c>
       <c r="E195" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
-      <c r="G195" s="1"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="4"/>
-    </row>
-    <row r="196" spans="1:9">
-      <c r="A196" s="3">
+      <c r="G195" s="3">
+        <v>11.3578</v>
+      </c>
+      <c r="H195" s="4"/>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="5">
         <v>43669</v>
       </c>
       <c r="B196" s="2">
@@ -5550,17 +5728,18 @@
         <v>23</v>
       </c>
       <c r="E196" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F196">
         <v>1</v>
       </c>
-      <c r="G196" s="1"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="4"/>
-    </row>
-    <row r="197" spans="1:9">
-      <c r="A197" s="3">
+      <c r="G196" s="3">
+        <v>12.3596</v>
+      </c>
+      <c r="H196" s="4"/>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="5">
         <v>43669</v>
       </c>
       <c r="B197" s="2">
@@ -5573,17 +5752,18 @@
         <v>21</v>
       </c>
       <c r="E197" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F197">
         <v>1</v>
       </c>
-      <c r="G197" s="1"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="4"/>
-    </row>
-    <row r="198" spans="1:9">
-      <c r="A198" s="3">
+      <c r="G197" s="3">
+        <v>12.4848</v>
+      </c>
+      <c r="H197" s="4"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="5">
         <v>43669</v>
       </c>
       <c r="B198" s="2">
@@ -5596,17 +5776,18 @@
         <v>22</v>
       </c>
       <c r="E198" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F198">
         <v>1</v>
       </c>
-      <c r="G198" s="1"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="4"/>
-    </row>
-    <row r="199" spans="1:9">
-      <c r="A199" s="3">
+      <c r="G198" s="3">
+        <v>14.4255</v>
+      </c>
+      <c r="H198" s="4"/>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="5">
         <v>43670</v>
       </c>
       <c r="B199" s="2">
@@ -5619,17 +5800,18 @@
         <v>23</v>
       </c>
       <c r="E199" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F199">
         <v>1</v>
       </c>
-      <c r="G199" s="1"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="4"/>
-    </row>
-    <row r="200" spans="1:9">
-      <c r="A200" s="3">
+      <c r="G199" s="3">
+        <v>11.5457</v>
+      </c>
+      <c r="H199" s="4"/>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="5">
         <v>43670</v>
       </c>
       <c r="B200" s="2">
@@ -5642,17 +5824,18 @@
         <v>34</v>
       </c>
       <c r="E200" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F200">
         <v>1</v>
       </c>
-      <c r="G200" s="1"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="4"/>
-    </row>
-    <row r="201" spans="1:9">
-      <c r="A201" s="3">
+      <c r="G200" s="3">
+        <v>12.7353</v>
+      </c>
+      <c r="H200" s="4"/>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="5">
         <v>43670</v>
       </c>
       <c r="B201" s="2">
@@ -5665,17 +5848,18 @@
         <v>20</v>
       </c>
       <c r="E201" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F201">
         <v>1</v>
       </c>
-      <c r="G201" s="1"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="4"/>
-    </row>
-    <row r="202" spans="1:9">
-      <c r="A202" s="3">
+      <c r="G201" s="3">
+        <v>14.0499</v>
+      </c>
+      <c r="H201" s="4"/>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="5">
         <v>43670</v>
       </c>
       <c r="B202" s="2">
@@ -5688,17 +5872,18 @@
         <v>22</v>
       </c>
       <c r="E202" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F202">
         <v>3</v>
       </c>
-      <c r="G202" s="1"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="4"/>
-    </row>
-    <row r="203" spans="1:9">
-      <c r="A203" s="3">
+      <c r="G202" s="3">
+        <v>15.7398</v>
+      </c>
+      <c r="H202" s="4"/>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="5">
         <v>43671</v>
       </c>
       <c r="B203" s="2">
@@ -5711,17 +5896,18 @@
         <v>20</v>
       </c>
       <c r="E203" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F203">
         <v>2</v>
       </c>
-      <c r="G203" s="1"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="4"/>
-    </row>
-    <row r="204" spans="1:9">
-      <c r="A204" s="3">
+      <c r="G203" s="3">
+        <v>15.1765</v>
+      </c>
+      <c r="H203" s="4"/>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="5">
         <v>43671</v>
       </c>
       <c r="B204" s="2">
@@ -5734,17 +5920,18 @@
         <v>20</v>
       </c>
       <c r="E204" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F204">
         <v>1</v>
       </c>
-      <c r="G204" s="1"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="4"/>
-    </row>
-    <row r="205" spans="1:9">
-      <c r="A205" s="3">
+      <c r="G204" s="3">
+        <v>15.552</v>
+      </c>
+      <c r="H204" s="4"/>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="5">
         <v>43671</v>
       </c>
       <c r="B205" s="2">
@@ -5757,17 +5944,18 @@
         <v>22</v>
       </c>
       <c r="E205" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F205">
         <v>1</v>
       </c>
-      <c r="G205" s="1"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="4"/>
-    </row>
-    <row r="206" spans="1:9">
-      <c r="A206" s="3">
+      <c r="G205" s="3">
+        <v>12.4848</v>
+      </c>
+      <c r="H205" s="4"/>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="5">
         <v>43671</v>
       </c>
       <c r="B206" s="2">
@@ -5780,17 +5968,18 @@
         <v>22</v>
       </c>
       <c r="E206" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F206">
         <v>1</v>
       </c>
-      <c r="G206" s="1"/>
-      <c r="H206" s="2"/>
-      <c r="I206" s="4"/>
-    </row>
-    <row r="207" spans="1:9">
-      <c r="A207" s="3">
+      <c r="G206" s="3">
+        <v>17.3667</v>
+      </c>
+      <c r="H206" s="4"/>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="5">
         <v>43672</v>
       </c>
       <c r="B207" s="2">
@@ -5803,17 +5992,18 @@
         <v>23</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
-      <c r="G207" s="1"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="4"/>
-    </row>
-    <row r="208" spans="1:9">
-      <c r="A208" s="3">
+      <c r="G207" s="3">
+        <v>14.9888</v>
+      </c>
+      <c r="H207" s="4"/>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="5">
         <v>43672</v>
       </c>
       <c r="B208" s="2">
@@ -5826,17 +6016,18 @@
         <v>21</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F208">
         <v>0</v>
       </c>
-      <c r="G208" s="1"/>
-      <c r="H208" s="2"/>
-      <c r="I208" s="4"/>
-    </row>
-    <row r="209" spans="1:9">
-      <c r="A209" s="3">
+      <c r="G208" s="3">
+        <v>13.9247</v>
+      </c>
+      <c r="H208" s="4"/>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="5">
         <v>43672</v>
       </c>
       <c r="B209" s="2">
@@ -5849,17 +6040,18 @@
         <v>22</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F209">
         <v>0</v>
       </c>
-      <c r="G209" s="1"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="4"/>
-    </row>
-    <row r="210" spans="1:9">
-      <c r="A210" s="3">
+      <c r="G209" s="3">
+        <v>15.3017</v>
+      </c>
+      <c r="H209" s="4"/>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="5">
         <v>43672</v>
       </c>
       <c r="B210" s="2">
@@ -5872,17 +6064,18 @@
         <v>21</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
-      <c r="G210" s="1"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="4"/>
-    </row>
-    <row r="211" spans="1:9">
-      <c r="A211" s="3">
+      <c r="G210" s="3">
+        <v>15.6772</v>
+      </c>
+      <c r="H210" s="4"/>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="5">
         <v>43673</v>
       </c>
       <c r="B211" s="2">
@@ -5895,17 +6088,18 @@
         <v>20</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F211">
         <v>1</v>
       </c>
-      <c r="G211" s="1"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="4"/>
-    </row>
-    <row r="212" spans="1:9">
-      <c r="A212" s="3">
+      <c r="G211" s="3">
+        <v>17.6796</v>
+      </c>
+      <c r="H211" s="4"/>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="5">
         <v>43673</v>
       </c>
       <c r="B212" s="2">
@@ -5918,17 +6112,18 @@
         <v>19</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F212">
         <v>1</v>
       </c>
-      <c r="G212" s="1"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="4"/>
-    </row>
-    <row r="213" spans="1:9">
-      <c r="A213" s="3">
+      <c r="G212" s="3">
+        <v>16.9913</v>
+      </c>
+      <c r="H212" s="4"/>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="5">
         <v>43673</v>
       </c>
       <c r="B213" s="2">
@@ -5941,17 +6136,18 @@
         <v>19</v>
       </c>
       <c r="E213" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F213">
         <v>1</v>
       </c>
-      <c r="G213" s="1"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="4"/>
-    </row>
-    <row r="214" spans="1:9">
-      <c r="A214" s="3">
+      <c r="G213" s="3">
+        <v>17.1164</v>
+      </c>
+      <c r="H213" s="4"/>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="5">
         <v>43673</v>
       </c>
       <c r="B214" s="2">
@@ -5964,17 +6160,18 @@
         <v>19</v>
       </c>
       <c r="E214" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F214">
         <v>1</v>
       </c>
-      <c r="G214" s="1"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="4"/>
-    </row>
-    <row r="215" spans="1:9">
-      <c r="A215" s="3">
+      <c r="G214" s="3">
+        <v>17.3667</v>
+      </c>
+      <c r="H214" s="4"/>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="5">
         <v>43674</v>
       </c>
       <c r="B215" s="2">
@@ -5987,17 +6184,18 @@
         <v>20</v>
       </c>
       <c r="E215" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F215">
         <v>3</v>
       </c>
-      <c r="G215" s="1"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="4"/>
-    </row>
-    <row r="216" spans="1:9">
-      <c r="A216" s="3">
+      <c r="G215" s="3">
+        <v>18.4303</v>
+      </c>
+      <c r="H215" s="4"/>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="5">
         <v>43674</v>
       </c>
       <c r="B216" s="2">
@@ -6010,17 +6208,18 @@
         <v>19</v>
       </c>
       <c r="E216" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F216">
         <v>1</v>
       </c>
-      <c r="G216" s="1"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="4"/>
-    </row>
-    <row r="217" spans="1:9">
-      <c r="A217" s="3">
+      <c r="G216" s="3">
+        <v>17.0539</v>
+      </c>
+      <c r="H216" s="4"/>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="5">
         <v>43674</v>
       </c>
       <c r="B217" s="2">
@@ -6033,17 +6232,18 @@
         <v>20</v>
       </c>
       <c r="E217" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F217">
         <v>1</v>
       </c>
-      <c r="G217" s="1"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="4"/>
-    </row>
-    <row r="218" spans="1:9">
-      <c r="A218" s="3">
+      <c r="G217" s="3">
+        <v>16.741</v>
+      </c>
+      <c r="H217" s="4"/>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="5">
         <v>43674</v>
       </c>
       <c r="B218" s="2">
@@ -6056,17 +6256,18 @@
         <v>20</v>
       </c>
       <c r="E218" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F218">
         <v>1</v>
       </c>
-      <c r="G218" s="1"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="4"/>
-    </row>
-    <row r="219" spans="1:9">
-      <c r="A219" s="3">
+      <c r="G218" s="3">
+        <v>14.7384</v>
+      </c>
+      <c r="H218" s="4"/>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="5">
         <v>43675</v>
       </c>
       <c r="B219" s="2">
@@ -6079,17 +6280,18 @@
         <v>20</v>
       </c>
       <c r="E219" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F219">
         <v>1</v>
       </c>
-      <c r="G219" s="1"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="4"/>
-    </row>
-    <row r="220" spans="1:9">
-      <c r="A220" s="3">
+      <c r="G219" s="3">
+        <v>14.6132</v>
+      </c>
+      <c r="H219" s="4"/>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="5">
         <v>43675</v>
       </c>
       <c r="B220" s="2">
@@ -6102,16 +6304,17 @@
         <v>20</v>
       </c>
       <c r="E220" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F220">
         <v>1</v>
       </c>
-      <c r="G220" s="1"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="4"/>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="G220" s="3">
+        <v>13.3613</v>
+      </c>
+      <c r="H220" s="4"/>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>43675</v>
       </c>
@@ -6125,17 +6328,18 @@
         <v>20</v>
       </c>
       <c r="E221" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F221">
         <v>1</v>
       </c>
-      <c r="G221" s="1"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="4"/>
-    </row>
-    <row r="222" spans="1:9">
-      <c r="A222" s="3">
+      <c r="G221" s="3">
+        <v>12.9857</v>
+      </c>
+      <c r="H221" s="4"/>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="5">
         <v>43675</v>
       </c>
       <c r="B222" s="2">
@@ -6148,17 +6352,18 @@
         <v>20</v>
       </c>
       <c r="E222" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F222">
         <v>1</v>
       </c>
-      <c r="G222" s="1"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="4"/>
-    </row>
-    <row r="223" spans="1:9">
-      <c r="A223" s="3">
+      <c r="G222" s="3">
+        <v>12.7353</v>
+      </c>
+      <c r="H222" s="4"/>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="5">
         <v>43676</v>
       </c>
       <c r="B223" s="2">
@@ -6171,17 +6376,18 @@
         <v>21</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F223">
         <v>1</v>
       </c>
-      <c r="G223" s="1"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="4"/>
-    </row>
-    <row r="224" spans="1:9">
-      <c r="A224" s="3">
+      <c r="G223" s="3">
+        <v>12.3596</v>
+      </c>
+      <c r="H223" s="4"/>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="5">
         <v>43676</v>
       </c>
       <c r="B224" s="2">
@@ -6194,17 +6400,18 @@
         <v>21</v>
       </c>
       <c r="E224" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F224">
         <v>2</v>
       </c>
-      <c r="G224" s="1"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="4"/>
-    </row>
-    <row r="225" spans="1:9">
-      <c r="A225" s="3">
+      <c r="G224" s="3">
+        <v>11.8587</v>
+      </c>
+      <c r="H224" s="4"/>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="5">
         <v>43676</v>
       </c>
       <c r="B225" s="2">
@@ -6217,17 +6424,18 @@
         <v>21</v>
       </c>
       <c r="E225" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F225">
         <v>2</v>
       </c>
-      <c r="G225" s="1"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="4"/>
-    </row>
-    <row r="226" spans="1:9">
-      <c r="A226" s="3">
+      <c r="G225" s="3">
+        <v>10.9821</v>
+      </c>
+      <c r="H225" s="4"/>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="5">
         <v>43676</v>
       </c>
       <c r="B226" s="2">
@@ -6240,17 +6448,18 @@
         <v>22</v>
       </c>
       <c r="E226" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F226">
         <v>2</v>
       </c>
-      <c r="G226" s="1"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="4"/>
-    </row>
-    <row r="227" spans="1:9">
-      <c r="A227" s="3">
+      <c r="G226" s="3">
+        <v>9.2285</v>
+      </c>
+      <c r="H226" s="4"/>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="5">
         <v>43677</v>
       </c>
       <c r="B227" s="2">
@@ -6263,17 +6472,18 @@
         <v>24</v>
       </c>
       <c r="E227" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F227">
         <v>4</v>
       </c>
-      <c r="G227" s="1"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="4"/>
-    </row>
-    <row r="228" spans="1:9">
-      <c r="A228" s="3">
+      <c r="G227" s="3">
+        <v>8.978</v>
+      </c>
+      <c r="H227" s="4"/>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="5">
         <v>43677</v>
       </c>
       <c r="B228" s="2">
@@ -6286,17 +6496,18 @@
         <v>23</v>
       </c>
       <c r="E228" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
-      <c r="G228" s="1"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="4"/>
-    </row>
-    <row r="229" spans="1:9">
-      <c r="A229" s="3">
+      <c r="G228" s="3">
+        <v>8.4768</v>
+      </c>
+      <c r="H228" s="4"/>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="5">
         <v>43677</v>
       </c>
       <c r="B229" s="2">
@@ -6309,17 +6520,18 @@
         <v>21</v>
       </c>
       <c r="E229" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
-      <c r="G229" s="1"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="4"/>
-    </row>
-    <row r="230" spans="1:9">
-      <c r="A230" s="3">
+      <c r="G229" s="3">
+        <v>7.9757</v>
+      </c>
+      <c r="H229" s="4"/>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="5">
         <v>43677</v>
       </c>
       <c r="B230" s="2">
@@ -6332,17 +6544,18 @@
         <v>22</v>
       </c>
       <c r="E230" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
-      <c r="G230" s="1"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="4"/>
-    </row>
-    <row r="231" spans="1:9">
-      <c r="A231" s="3">
+      <c r="G230" s="3">
+        <v>8.1636</v>
+      </c>
+      <c r="H230" s="4"/>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="5">
         <v>43678</v>
       </c>
       <c r="B231" s="2">
@@ -6355,17 +6568,18 @@
         <v>24</v>
       </c>
       <c r="E231" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F231">
         <v>1</v>
       </c>
-      <c r="G231" s="1"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="4"/>
-    </row>
-    <row r="232" spans="1:9">
-      <c r="A232" s="3">
+      <c r="G231" s="3">
+        <v>8.1636</v>
+      </c>
+      <c r="H231" s="4"/>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="5">
         <v>43678</v>
       </c>
       <c r="B232" s="2">
@@ -6378,17 +6592,18 @@
         <v>21</v>
       </c>
       <c r="E232" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F232">
         <v>2</v>
       </c>
-      <c r="G232" s="1"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="4"/>
-    </row>
-    <row r="233" spans="1:9">
-      <c r="A233" s="3">
+      <c r="G232" s="3">
+        <v>7.8504</v>
+      </c>
+      <c r="H232" s="4"/>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="5">
         <v>43678</v>
       </c>
       <c r="B233" s="2">
@@ -6401,17 +6616,18 @@
         <v>21</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F233">
         <v>0</v>
       </c>
-      <c r="G233" s="1"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="4"/>
-    </row>
-    <row r="234" spans="1:9">
-      <c r="A234" s="3">
+      <c r="G233" s="3">
+        <v>7.2239</v>
+      </c>
+      <c r="H233" s="4"/>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="5">
         <v>43678</v>
       </c>
       <c r="B234" s="2">
@@ -6424,17 +6640,18 @@
         <v>21</v>
       </c>
       <c r="E234" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F234">
         <v>1</v>
       </c>
-      <c r="G234" s="1"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="4"/>
-    </row>
-    <row r="235" spans="1:9">
-      <c r="A235" s="3">
+      <c r="G234" s="3">
+        <v>7.9757</v>
+      </c>
+      <c r="H234" s="4"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="5">
         <v>43679</v>
       </c>
       <c r="B235" s="2">
@@ -6447,17 +6664,18 @@
         <v>22</v>
       </c>
       <c r="E235" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F235">
         <v>0</v>
       </c>
-      <c r="G235" s="1"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="4"/>
-    </row>
-    <row r="236" spans="1:9">
-      <c r="A236" s="3">
+      <c r="G235" s="3">
+        <v>7.2239</v>
+      </c>
+      <c r="H235" s="4"/>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="5">
         <v>43679</v>
       </c>
       <c r="B236" s="2">
@@ -6470,17 +6688,18 @@
         <v>24</v>
       </c>
       <c r="E236" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F236">
         <v>1</v>
       </c>
-      <c r="G236" s="1"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="4"/>
-    </row>
-    <row r="237" spans="1:9">
-      <c r="A237" s="3">
+      <c r="G236" s="3">
+        <v>7.4119</v>
+      </c>
+      <c r="H236" s="4"/>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="5">
         <v>43679</v>
       </c>
       <c r="B237" s="2">
@@ -6493,17 +6712,18 @@
         <v>24</v>
       </c>
       <c r="E237" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F237">
         <v>1</v>
       </c>
-      <c r="G237" s="1"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="4"/>
-    </row>
-    <row r="238" spans="1:9">
-      <c r="A238" s="3">
+      <c r="G237" s="3">
+        <v>7.5372</v>
+      </c>
+      <c r="H237" s="4"/>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="5">
         <v>43679</v>
       </c>
       <c r="B238" s="2">
@@ -6516,17 +6736,18 @@
         <v>25</v>
       </c>
       <c r="E238" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F238">
         <v>1</v>
       </c>
-      <c r="G238" s="1"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="4"/>
-    </row>
-    <row r="239" spans="1:9">
-      <c r="A239" s="3">
+      <c r="G238" s="3">
+        <v>7.7878</v>
+      </c>
+      <c r="H238" s="4"/>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="5">
         <v>43680</v>
       </c>
       <c r="B239" s="2">
@@ -6539,17 +6760,18 @@
         <v>24</v>
       </c>
       <c r="E239" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
-      <c r="G239" s="1"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="4"/>
-    </row>
-    <row r="240" spans="1:9">
-      <c r="A240" s="3">
+      <c r="G239" s="3">
+        <v>6.66</v>
+      </c>
+      <c r="H239" s="4"/>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="5">
         <v>43680</v>
       </c>
       <c r="B240" s="2">
@@ -6562,17 +6784,18 @@
         <v>21</v>
       </c>
       <c r="E240" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
-      <c r="G240" s="1"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="4"/>
-    </row>
-    <row r="241" spans="1:9">
-      <c r="A241" s="3">
+      <c r="G240" s="3">
+        <v>7.2239</v>
+      </c>
+      <c r="H240" s="4"/>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="5">
         <v>43680</v>
       </c>
       <c r="B241" s="2">
@@ -6585,17 +6808,18 @@
         <v>22</v>
       </c>
       <c r="E241" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F241">
         <v>1</v>
       </c>
-      <c r="G241" s="1"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="4"/>
-    </row>
-    <row r="242" spans="1:9">
-      <c r="A242" s="3">
+      <c r="G241" s="3">
+        <v>6.5347</v>
+      </c>
+      <c r="H241" s="4"/>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="5">
         <v>43680</v>
       </c>
       <c r="B242" s="2">
@@ -6608,17 +6832,18 @@
         <v>20</v>
       </c>
       <c r="E242" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F242">
         <v>1</v>
       </c>
-      <c r="G242" s="1"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="4"/>
-    </row>
-    <row r="243" spans="1:9">
-      <c r="A243" s="3">
+      <c r="G242" s="3">
+        <v>7.4119</v>
+      </c>
+      <c r="H242" s="4"/>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="5">
         <v>43681</v>
       </c>
       <c r="B243" s="2">
@@ -6631,17 +6856,18 @@
         <v>26</v>
       </c>
       <c r="E243" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F243">
         <v>1</v>
       </c>
-      <c r="G243" s="1"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="4"/>
-    </row>
-    <row r="244" spans="1:9">
-      <c r="A244" s="3">
+      <c r="G243" s="3">
+        <v>6.7853</v>
+      </c>
+      <c r="H243" s="4"/>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="5">
         <v>43681</v>
       </c>
       <c r="B244" s="2">
@@ -6654,17 +6880,18 @@
         <v>23</v>
       </c>
       <c r="E244" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F244">
         <v>1</v>
       </c>
-      <c r="G244" s="1"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="4"/>
-    </row>
-    <row r="245" spans="1:9">
-      <c r="A245" s="3">
+      <c r="G244" s="3">
+        <v>6.3467</v>
+      </c>
+      <c r="H244" s="4"/>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="5">
         <v>43681</v>
       </c>
       <c r="B245" s="2">
@@ -6677,17 +6904,18 @@
         <v>22</v>
       </c>
       <c r="E245" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F245">
         <v>2</v>
       </c>
-      <c r="G245" s="1"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="4"/>
-    </row>
-    <row r="246" spans="1:9">
-      <c r="A246" s="3">
+      <c r="G245" s="3">
+        <v>6.4094</v>
+      </c>
+      <c r="H245" s="4"/>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="5">
         <v>43681</v>
       </c>
       <c r="B246" s="2">
@@ -6700,17 +6928,18 @@
         <v>22</v>
       </c>
       <c r="E246" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F246">
         <v>2</v>
       </c>
-      <c r="G246" s="1"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="4"/>
-    </row>
-    <row r="247" spans="1:9">
-      <c r="A247" s="3">
+      <c r="G246" s="3">
+        <v>6.3467</v>
+      </c>
+      <c r="H246" s="4"/>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="5">
         <v>43682</v>
       </c>
       <c r="B247" s="2">
@@ -6723,17 +6952,18 @@
         <v>24</v>
       </c>
       <c r="E247" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F247">
         <v>3</v>
       </c>
-      <c r="G247" s="1"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="4"/>
-    </row>
-    <row r="248" spans="1:9">
-      <c r="A248" s="3">
+      <c r="G247" s="3">
+        <v>6.3467</v>
+      </c>
+      <c r="H247" s="4"/>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="5">
         <v>43682</v>
       </c>
       <c r="B248" s="2">
@@ -6746,17 +6976,18 @@
         <v>24</v>
       </c>
       <c r="E248" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F248">
         <v>2</v>
       </c>
-      <c r="G248" s="1"/>
-      <c r="H248" s="2"/>
-      <c r="I248" s="4"/>
-    </row>
-    <row r="249" spans="1:9">
-      <c r="A249" s="3">
+      <c r="G248" s="3">
+        <v>5.8454</v>
+      </c>
+      <c r="H248" s="4"/>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="5">
         <v>43682</v>
       </c>
       <c r="B249" s="2">
@@ -6769,17 +7000,18 @@
         <v>25</v>
       </c>
       <c r="E249" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F249">
         <v>3</v>
       </c>
-      <c r="G249" s="1"/>
-      <c r="H249" s="2"/>
-      <c r="I249" s="4"/>
-    </row>
-    <row r="250" spans="1:9">
-      <c r="A250" s="3">
+      <c r="G249" s="3">
+        <v>6.0961</v>
+      </c>
+      <c r="H249" s="4"/>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="5">
         <v>43682</v>
       </c>
       <c r="B250" s="2">
@@ -6792,17 +7024,18 @@
         <v>25</v>
       </c>
       <c r="E250" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F250">
         <v>1</v>
       </c>
-      <c r="G250" s="1"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="4"/>
-    </row>
-    <row r="251" spans="1:9">
-      <c r="A251" s="3">
+      <c r="G250" s="3">
+        <v>5.7828</v>
+      </c>
+      <c r="H250" s="4"/>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="5">
         <v>43683</v>
       </c>
       <c r="B251" s="2">
@@ -6815,17 +7048,18 @@
         <v>25</v>
       </c>
       <c r="E251" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F251">
         <v>2</v>
       </c>
-      <c r="G251" s="1"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="4"/>
-    </row>
-    <row r="252" spans="1:9">
-      <c r="A252" s="3">
+      <c r="G251" s="3">
+        <v>6.1587</v>
+      </c>
+      <c r="H251" s="4"/>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="5">
         <v>43683</v>
       </c>
       <c r="B252" s="2">
@@ -6838,17 +7072,18 @@
         <v>24</v>
       </c>
       <c r="E252" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F252">
         <v>1</v>
       </c>
-      <c r="G252" s="1"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="4"/>
-    </row>
-    <row r="253" spans="1:9">
-      <c r="A253" s="3">
+      <c r="G252" s="3">
+        <v>5.9708</v>
+      </c>
+      <c r="H252" s="4"/>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="5">
         <v>43683</v>
       </c>
       <c r="B253" s="2">
@@ -6861,17 +7096,18 @@
         <v>24</v>
       </c>
       <c r="E253" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F253">
         <v>0</v>
       </c>
-      <c r="G253" s="1"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="4"/>
-    </row>
-    <row r="254" spans="1:9">
-      <c r="A254" s="3">
+      <c r="G253" s="3">
+        <v>6.0334</v>
+      </c>
+      <c r="H253" s="4"/>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="5">
         <v>43683</v>
       </c>
       <c r="B254" s="2">
@@ -6884,17 +7120,18 @@
         <v>24</v>
       </c>
       <c r="E254" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F254">
         <v>1</v>
       </c>
-      <c r="G254" s="1"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="4"/>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="A255" s="3">
+      <c r="G254" s="3">
+        <v>6.0334</v>
+      </c>
+      <c r="H254" s="4"/>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="5">
         <v>43684</v>
       </c>
       <c r="B255" s="2">
@@ -6907,17 +7144,18 @@
         <v>26</v>
       </c>
       <c r="E255" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F255">
         <v>1</v>
       </c>
-      <c r="G255" s="1"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="4"/>
-    </row>
-    <row r="256" spans="1:9">
-      <c r="A256" s="3">
+      <c r="G255" s="3">
+        <v>6.4094</v>
+      </c>
+      <c r="H255" s="4"/>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="5">
         <v>43684</v>
       </c>
       <c r="B256" s="2">
@@ -6930,17 +7168,18 @@
         <v>25</v>
       </c>
       <c r="E256" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F256">
         <v>1</v>
       </c>
-      <c r="G256" s="1"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="4"/>
-    </row>
-    <row r="257" spans="1:9">
-      <c r="A257" s="3">
+      <c r="G256" s="3">
+        <v>5.8454</v>
+      </c>
+      <c r="H256" s="4"/>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="5">
         <v>43684</v>
       </c>
       <c r="B257" s="2">
@@ -6953,17 +7192,18 @@
         <v>25</v>
       </c>
       <c r="E257" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F257">
         <v>1</v>
       </c>
-      <c r="G257" s="1"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="4"/>
-    </row>
-    <row r="258" spans="1:9">
-      <c r="A258" s="3">
+      <c r="G257" s="3">
+        <v>6.2841</v>
+      </c>
+      <c r="H257" s="4"/>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="5">
         <v>43684</v>
       </c>
       <c r="B258" s="2">
@@ -6976,17 +7216,18 @@
         <v>25</v>
       </c>
       <c r="E258" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
-      <c r="G258" s="1"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="4"/>
-    </row>
-    <row r="259" spans="1:9">
-      <c r="A259" s="3">
+      <c r="G258" s="3">
+        <v>6.5974</v>
+      </c>
+      <c r="H258" s="4"/>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="5">
         <v>43685</v>
       </c>
       <c r="B259" s="2">
@@ -6999,17 +7240,18 @@
         <v>25</v>
       </c>
       <c r="E259" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F259">
         <v>0</v>
       </c>
-      <c r="G259" s="1"/>
-      <c r="H259" s="2"/>
-      <c r="I259" s="4"/>
-    </row>
-    <row r="260" spans="1:9">
-      <c r="A260" s="3">
+      <c r="G259" s="3">
+        <v>7.4119</v>
+      </c>
+      <c r="H259" s="4"/>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="5">
         <v>43685</v>
       </c>
       <c r="B260" s="2">
@@ -7022,17 +7264,18 @@
         <v>24</v>
       </c>
       <c r="E260" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
-      <c r="G260" s="1"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="4"/>
-    </row>
-    <row r="261" spans="1:9">
-      <c r="A261" s="3">
+      <c r="G260" s="3">
+        <v>7.3492</v>
+      </c>
+      <c r="H260" s="4"/>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="5">
         <v>43685</v>
       </c>
       <c r="B261" s="2">
@@ -7045,17 +7288,18 @@
         <v>24</v>
       </c>
       <c r="E261" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
-      <c r="G261" s="1"/>
-      <c r="H261" s="2"/>
-      <c r="I261" s="4"/>
-    </row>
-    <row r="262" spans="1:9">
-      <c r="A262" s="3">
+      <c r="G261" s="3">
+        <v>7.0359</v>
+      </c>
+      <c r="H261" s="4"/>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="5">
         <v>43685</v>
       </c>
       <c r="B262" s="2">
@@ -7068,17 +7312,18 @@
         <v>25</v>
       </c>
       <c r="E262" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F262">
         <v>0</v>
       </c>
-      <c r="G262" s="1"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="4"/>
-    </row>
-    <row r="263" spans="1:9">
-      <c r="A263" s="3">
+      <c r="G262" s="3">
+        <v>7.9757</v>
+      </c>
+      <c r="H262" s="4"/>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="5">
         <v>43686</v>
       </c>
       <c r="B263" s="2">
@@ -7091,17 +7336,18 @@
         <v>24</v>
       </c>
       <c r="E263" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F263">
         <v>0</v>
       </c>
-      <c r="G263" s="1"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="4"/>
-    </row>
-    <row r="264" spans="1:9">
-      <c r="A264" s="3">
+      <c r="G263" s="3">
+        <v>7.4119</v>
+      </c>
+      <c r="H263" s="4"/>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="5">
         <v>43686</v>
       </c>
       <c r="B264" s="2">
@@ -7114,17 +7360,18 @@
         <v>25</v>
       </c>
       <c r="E264" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F264">
         <v>0</v>
       </c>
-      <c r="G264" s="1"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="4"/>
-    </row>
-    <row r="265" spans="1:9">
-      <c r="A265" s="3">
+      <c r="G264" s="3">
+        <v>7.2866</v>
+      </c>
+      <c r="H264" s="4"/>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="5">
         <v>43686</v>
       </c>
       <c r="B265" s="2">
@@ -7137,17 +7384,18 @@
         <v>24</v>
       </c>
       <c r="E265" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F265">
         <v>1</v>
       </c>
-      <c r="G265" s="1"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="4"/>
-    </row>
-    <row r="266" spans="1:9">
-      <c r="A266" s="3">
+      <c r="G265" s="3">
+        <v>7.4119</v>
+      </c>
+      <c r="H265" s="4"/>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="5">
         <v>43686</v>
       </c>
       <c r="B266" s="2">
@@ -7160,17 +7408,18 @@
         <v>25</v>
       </c>
       <c r="E266" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F266">
         <v>1</v>
       </c>
-      <c r="G266" s="1"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="4"/>
-    </row>
-    <row r="267" spans="1:9">
-      <c r="A267" s="3">
+      <c r="G266" s="3">
+        <v>8.0383</v>
+      </c>
+      <c r="H266" s="4"/>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="5">
         <v>43687</v>
       </c>
       <c r="B267" s="2">
@@ -7183,17 +7432,18 @@
         <v>24</v>
       </c>
       <c r="E267" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
-      <c r="G267" s="1"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="4"/>
-    </row>
-    <row r="268" spans="1:9">
-      <c r="A268" s="3">
+      <c r="G267" s="3">
+        <v>6.7853</v>
+      </c>
+      <c r="H267" s="4"/>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="5">
         <v>43687</v>
       </c>
       <c r="B268" s="2">
@@ -7206,17 +7456,18 @@
         <v>23</v>
       </c>
       <c r="E268" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
-      <c r="G268" s="1"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="4"/>
-    </row>
-    <row r="269" spans="1:9">
-      <c r="A269" s="3">
+      <c r="G268" s="3">
+        <v>7.7251</v>
+      </c>
+      <c r="H268" s="4"/>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="5">
         <v>43687</v>
       </c>
       <c r="B269" s="2">
@@ -7229,17 +7480,18 @@
         <v>24</v>
       </c>
       <c r="E269" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F269">
         <v>1</v>
       </c>
-      <c r="G269" s="1"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="4"/>
-    </row>
-    <row r="270" spans="1:9">
-      <c r="A270" s="3">
+      <c r="G269" s="3">
+        <v>7.9757</v>
+      </c>
+      <c r="H269" s="4"/>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="5">
         <v>43687</v>
       </c>
       <c r="B270" s="2">
@@ -7252,17 +7504,18 @@
         <v>25</v>
       </c>
       <c r="E270" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F270">
         <v>1</v>
       </c>
-      <c r="G270" s="1"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="4"/>
-    </row>
-    <row r="271" spans="1:9">
-      <c r="A271" s="3">
+      <c r="G270" s="3">
+        <v>9.7296</v>
+      </c>
+      <c r="H270" s="4"/>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="5">
         <v>43688</v>
       </c>
       <c r="B271" s="2">
@@ -7275,17 +7528,18 @@
         <v>24</v>
       </c>
       <c r="E271" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F271">
         <v>1</v>
       </c>
-      <c r="G271" s="1"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="4"/>
-    </row>
-    <row r="272" spans="1:9">
-      <c r="A272" s="3">
+      <c r="G271" s="3">
+        <v>10.2306</v>
+      </c>
+      <c r="H271" s="4"/>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="5">
         <v>43688</v>
       </c>
       <c r="B272" s="2">
@@ -7298,17 +7552,18 @@
         <v>24</v>
       </c>
       <c r="E272" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F272">
         <v>2</v>
       </c>
-      <c r="G272" s="1"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="4"/>
-    </row>
-    <row r="273" spans="1:9">
-      <c r="A273" s="3">
+      <c r="G272" s="3">
+        <v>8.2263</v>
+      </c>
+      <c r="H272" s="4"/>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="5">
         <v>43688</v>
       </c>
       <c r="B273" s="2">
@@ -7321,17 +7576,18 @@
         <v>24</v>
       </c>
       <c r="E273" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F273">
         <v>1</v>
       </c>
-      <c r="G273" s="1"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="4"/>
-    </row>
-    <row r="274" spans="1:9">
-      <c r="A274" s="3">
+      <c r="G273" s="3">
+        <v>9.479</v>
+      </c>
+      <c r="H273" s="4"/>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="5">
         <v>43688</v>
       </c>
       <c r="B274" s="2">
@@ -7344,17 +7600,18 @@
         <v>23</v>
       </c>
       <c r="E274" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F274">
         <v>2</v>
       </c>
-      <c r="G274" s="1"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="4"/>
-    </row>
-    <row r="275" spans="1:9">
-      <c r="A275" s="3">
+      <c r="G274" s="3">
+        <v>9.3538</v>
+      </c>
+      <c r="H274" s="4"/>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="5">
         <v>43689</v>
       </c>
       <c r="B275" s="2">
@@ -7367,17 +7624,18 @@
         <v>22</v>
       </c>
       <c r="E275" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F275">
         <v>2</v>
       </c>
-      <c r="G275" s="1"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="4"/>
-    </row>
-    <row r="276" spans="1:9">
-      <c r="A276" s="3">
+      <c r="G275" s="3">
+        <v>11.483</v>
+      </c>
+      <c r="H275" s="4"/>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="5">
         <v>43689</v>
       </c>
       <c r="B276" s="2">
@@ -7390,17 +7648,18 @@
         <v>22</v>
       </c>
       <c r="E276" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F276">
         <v>2</v>
       </c>
-      <c r="G276" s="1"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="4"/>
-    </row>
-    <row r="277" spans="1:9">
-      <c r="A277" s="3">
+      <c r="G276" s="3">
+        <v>9.8548</v>
+      </c>
+      <c r="H276" s="4"/>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="5">
         <v>43689</v>
       </c>
       <c r="B277" s="2">
@@ -7413,17 +7672,18 @@
         <v>22</v>
       </c>
       <c r="E277" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F277">
         <v>2</v>
       </c>
-      <c r="G277" s="1"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="4"/>
-    </row>
-    <row r="278" spans="1:9">
-      <c r="A278" s="3">
+      <c r="G277" s="3">
+        <v>9.2285</v>
+      </c>
+      <c r="H277" s="4"/>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="5">
         <v>43689</v>
       </c>
       <c r="B278" s="2">
@@ -7436,17 +7696,18 @@
         <v>22</v>
       </c>
       <c r="E278" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F278">
         <v>4</v>
       </c>
-      <c r="G278" s="1"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="4"/>
-    </row>
-    <row r="279" spans="1:9">
-      <c r="A279" s="3">
+      <c r="G278" s="3">
+        <v>9.9801</v>
+      </c>
+      <c r="H278" s="4"/>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="5">
         <v>43690</v>
       </c>
       <c r="B279" s="2">
@@ -7459,17 +7720,18 @@
         <v>22</v>
       </c>
       <c r="E279" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F279">
         <v>1</v>
       </c>
-      <c r="G279" s="1"/>
-      <c r="H279" s="2"/>
-      <c r="I279" s="4"/>
-    </row>
-    <row r="280" spans="1:9">
-      <c r="A280" s="3">
+      <c r="G279" s="3">
+        <v>10.9195</v>
+      </c>
+      <c r="H279" s="4"/>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="5">
         <v>43690</v>
       </c>
       <c r="B280" s="2">
@@ -7482,17 +7744,18 @@
         <v>26</v>
       </c>
       <c r="E280" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F280">
         <v>1</v>
       </c>
-      <c r="G280" s="1"/>
-      <c r="H280" s="2"/>
-      <c r="I280" s="4"/>
-    </row>
-    <row r="281" spans="1:9">
-      <c r="A281" s="3">
+      <c r="G280" s="3">
+        <v>9.3538</v>
+      </c>
+      <c r="H280" s="4"/>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="5">
         <v>43690</v>
       </c>
       <c r="B281" s="2">
@@ -7505,17 +7768,18 @@
         <v>21</v>
       </c>
       <c r="E281" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F281">
         <v>2</v>
       </c>
-      <c r="G281" s="1"/>
-      <c r="H281" s="2"/>
-      <c r="I281" s="4"/>
-    </row>
-    <row r="282" spans="1:9">
-      <c r="A282" s="3">
+      <c r="G281" s="3">
+        <v>9.7922</v>
+      </c>
+      <c r="H281" s="4"/>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="5">
         <v>43690</v>
       </c>
       <c r="B282" s="2">
@@ -7528,17 +7792,18 @@
         <v>21</v>
       </c>
       <c r="E282" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F282">
         <v>2</v>
       </c>
-      <c r="G282" s="1"/>
-      <c r="H282" s="2"/>
-      <c r="I282" s="4"/>
-    </row>
-    <row r="283" spans="1:9">
-      <c r="A283" s="3">
+      <c r="G282" s="3">
+        <v>8.6021</v>
+      </c>
+      <c r="H282" s="4"/>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="5">
         <v>43691</v>
       </c>
       <c r="B283" s="2">
@@ -7551,17 +7816,18 @@
         <v>22</v>
       </c>
       <c r="E283" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F283">
         <v>2</v>
       </c>
-      <c r="G283" s="1"/>
-      <c r="H283" s="2"/>
-      <c r="I283" s="4"/>
-    </row>
-    <row r="284" spans="1:9">
-      <c r="A284" s="3">
+      <c r="G283" s="3">
+        <v>9.8548</v>
+      </c>
+      <c r="H283" s="4"/>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="5">
         <v>43691</v>
       </c>
       <c r="B284" s="2">
@@ -7574,17 +7840,18 @@
         <v>22</v>
       </c>
       <c r="E284" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
-      <c r="G284" s="1"/>
-      <c r="H284" s="2"/>
-      <c r="I284" s="4"/>
-    </row>
-    <row r="285" spans="1:9">
-      <c r="A285" s="3">
+      <c r="G284" s="3">
+        <v>8.2889</v>
+      </c>
+      <c r="H284" s="4"/>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="5">
         <v>43691</v>
       </c>
       <c r="B285" s="2">
@@ -7597,17 +7864,18 @@
         <v>23</v>
       </c>
       <c r="E285" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F285">
         <v>1</v>
       </c>
-      <c r="G285" s="1"/>
-      <c r="H285" s="2"/>
-      <c r="I285" s="4"/>
-    </row>
-    <row r="286" spans="1:9">
-      <c r="A286" s="3">
+      <c r="G285" s="3">
+        <v>8.2263</v>
+      </c>
+      <c r="H285" s="4"/>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="5">
         <v>43691</v>
       </c>
       <c r="B286" s="2">
@@ -7620,17 +7888,18 @@
         <v>23</v>
       </c>
       <c r="E286" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F286">
         <v>1</v>
       </c>
-      <c r="G286" s="1"/>
-      <c r="H286" s="2"/>
-      <c r="I286" s="4"/>
-    </row>
-    <row r="287" spans="1:9">
-      <c r="A287" s="3">
+      <c r="G286" s="3">
+        <v>9.2911</v>
+      </c>
+      <c r="H286" s="4"/>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="5">
         <v>43692</v>
       </c>
       <c r="B287" s="2">
@@ -7643,17 +7912,18 @@
         <v>24</v>
       </c>
       <c r="E287" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F287">
         <v>0</v>
       </c>
-      <c r="G287" s="1"/>
-      <c r="H287" s="2"/>
-      <c r="I287" s="4"/>
-    </row>
-    <row r="288" spans="1:9">
-      <c r="A288" s="3">
+      <c r="G287" s="3">
+        <v>9.7296</v>
+      </c>
+      <c r="H287" s="4"/>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="5">
         <v>43692</v>
       </c>
       <c r="B288" s="2">
@@ -7666,17 +7936,18 @@
         <v>21</v>
       </c>
       <c r="E288" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F288">
         <v>0</v>
       </c>
-      <c r="G288" s="1"/>
-      <c r="H288" s="2"/>
-      <c r="I288" s="4"/>
-    </row>
-    <row r="289" spans="1:9">
-      <c r="A289" s="3">
+      <c r="G288" s="3">
+        <v>9.7922</v>
+      </c>
+      <c r="H288" s="4"/>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="5">
         <v>43692</v>
       </c>
       <c r="B289" s="2">
@@ -7689,17 +7960,18 @@
         <v>21</v>
       </c>
       <c r="E289" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F289">
         <v>0</v>
       </c>
-      <c r="G289" s="1"/>
-      <c r="H289" s="2"/>
-      <c r="I289" s="4"/>
-    </row>
-    <row r="290" spans="1:9">
-      <c r="A290" s="3">
+      <c r="G289" s="3">
+        <v>9.7922</v>
+      </c>
+      <c r="H289" s="4"/>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="5">
         <v>43692</v>
       </c>
       <c r="B290" s="2">
@@ -7712,17 +7984,18 @@
         <v>21</v>
       </c>
       <c r="E290" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F290">
         <v>0</v>
       </c>
-      <c r="G290" s="1"/>
-      <c r="H290" s="2"/>
-      <c r="I290" s="4"/>
-    </row>
-    <row r="291" spans="1:9">
-      <c r="A291" s="3">
+      <c r="G290" s="3">
+        <v>9.9801</v>
+      </c>
+      <c r="H290" s="4"/>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="5">
         <v>43693</v>
       </c>
       <c r="B291" s="2">
@@ -7735,17 +8008,18 @@
         <v>24</v>
       </c>
       <c r="E291" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F291">
         <v>0</v>
       </c>
-      <c r="G291" s="1"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="4"/>
-    </row>
-    <row r="292" spans="1:9">
-      <c r="A292" s="3">
+      <c r="G291" s="3">
+        <v>10.5437</v>
+      </c>
+      <c r="H291" s="4"/>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="5">
         <v>43693</v>
       </c>
       <c r="B292" s="2">
@@ -7758,17 +8032,18 @@
         <v>21</v>
       </c>
       <c r="E292" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F292">
         <v>0</v>
       </c>
-      <c r="G292" s="1"/>
-      <c r="H292" s="2"/>
-      <c r="I292" s="4"/>
-    </row>
-    <row r="293" spans="1:9">
-      <c r="A293" s="3">
+      <c r="G292" s="3">
+        <v>10.2932</v>
+      </c>
+      <c r="H292" s="4"/>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="5">
         <v>43693</v>
       </c>
       <c r="B293" s="2">
@@ -7781,17 +8056,18 @@
         <v>20</v>
       </c>
       <c r="E293" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F293">
         <v>0</v>
       </c>
-      <c r="G293" s="1"/>
-      <c r="H293" s="2"/>
-      <c r="I293" s="4"/>
-    </row>
-    <row r="294" spans="1:9">
-      <c r="A294" s="3">
+      <c r="G293" s="3">
+        <v>9.9175</v>
+      </c>
+      <c r="H293" s="4"/>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="5">
         <v>43693</v>
       </c>
       <c r="B294" s="2">
@@ -7804,17 +8080,18 @@
         <v>20</v>
       </c>
       <c r="E294" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F294">
         <v>0</v>
       </c>
-      <c r="G294" s="1"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="4"/>
-    </row>
-    <row r="295" spans="1:9">
-      <c r="A295" s="3">
+      <c r="G294" s="3">
+        <v>11.6083</v>
+      </c>
+      <c r="H294" s="4"/>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="5">
         <v>43694</v>
       </c>
       <c r="B295" s="2">
@@ -7827,17 +8104,18 @@
         <v>22</v>
       </c>
       <c r="E295" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F295">
         <v>0</v>
       </c>
-      <c r="G295" s="1"/>
-      <c r="H295" s="2"/>
-      <c r="I295" s="4"/>
-    </row>
-    <row r="296" spans="1:9">
-      <c r="A296" s="3">
+      <c r="G295" s="3">
+        <v>11.0447</v>
+      </c>
+      <c r="H295" s="4"/>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="5">
         <v>43694</v>
       </c>
       <c r="B296" s="2">
@@ -7850,17 +8128,18 @@
         <v>20</v>
       </c>
       <c r="E296" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F296">
         <v>2</v>
       </c>
-      <c r="G296" s="1"/>
-      <c r="H296" s="2"/>
-      <c r="I296" s="4"/>
-    </row>
-    <row r="297" spans="1:9">
-      <c r="A297" s="3">
+      <c r="G296" s="3">
+        <v>11.2326</v>
+      </c>
+      <c r="H296" s="4"/>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="5">
         <v>43694</v>
       </c>
       <c r="B297" s="2">
@@ -7873,17 +8152,18 @@
         <v>22</v>
       </c>
       <c r="E297" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F297">
         <v>1</v>
       </c>
-      <c r="G297" s="1"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="4"/>
-    </row>
-    <row r="298" spans="1:9">
-      <c r="A298" s="3">
+      <c r="G297" s="3">
+        <v>11.0447</v>
+      </c>
+      <c r="H297" s="4"/>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="5">
         <v>43694</v>
       </c>
       <c r="B298" s="2">
@@ -7896,17 +8176,18 @@
         <v>24</v>
       </c>
       <c r="E298" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F298">
         <v>1</v>
       </c>
-      <c r="G298" s="1"/>
-      <c r="H298" s="2"/>
-      <c r="I298" s="4"/>
-    </row>
-    <row r="299" spans="1:9">
-      <c r="A299" s="3">
+      <c r="G298" s="3">
+        <v>11.17</v>
+      </c>
+      <c r="H298" s="4"/>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="5">
         <v>43695</v>
       </c>
       <c r="B299" s="2">
@@ -7919,17 +8200,18 @@
         <v>22</v>
       </c>
       <c r="E299" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F299">
         <v>1</v>
       </c>
-      <c r="G299" s="1"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="4"/>
-    </row>
-    <row r="300" spans="1:9">
-      <c r="A300" s="3">
+      <c r="G299" s="3">
+        <v>12.0466</v>
+      </c>
+      <c r="H299" s="4"/>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="5">
         <v>43695</v>
       </c>
       <c r="B300" s="2">
@@ -7942,17 +8224,18 @@
         <v>21</v>
       </c>
       <c r="E300" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F300">
         <v>1</v>
       </c>
-      <c r="G300" s="1"/>
-      <c r="H300" s="2"/>
-      <c r="I300" s="4"/>
-    </row>
-    <row r="301" spans="1:9">
-      <c r="A301" s="3">
+      <c r="G300" s="3">
+        <v>10.5437</v>
+      </c>
+      <c r="H300" s="4"/>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="5">
         <v>43695</v>
       </c>
       <c r="B301" s="2">
@@ -7965,17 +8248,18 @@
         <v>20</v>
       </c>
       <c r="E301" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F301">
         <v>1</v>
       </c>
-      <c r="G301" s="1"/>
-      <c r="H301" s="2"/>
-      <c r="I301" s="4"/>
-    </row>
-    <row r="302" spans="1:9">
-      <c r="A302" s="3">
+      <c r="G301" s="3">
+        <v>11.1073</v>
+      </c>
+      <c r="H301" s="4"/>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="5">
         <v>43695</v>
       </c>
       <c r="B302" s="2">
@@ -7988,17 +8272,18 @@
         <v>20</v>
       </c>
       <c r="E302" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F302">
         <v>1</v>
       </c>
-      <c r="G302" s="1"/>
-      <c r="H302" s="2"/>
-      <c r="I302" s="4"/>
-    </row>
-    <row r="303" spans="1:9">
-      <c r="A303" s="3">
+      <c r="G302" s="3">
+        <v>11.6709</v>
+      </c>
+      <c r="H302" s="4"/>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="5">
         <v>43696</v>
       </c>
       <c r="B303" s="2">
@@ -8011,17 +8296,18 @@
         <v>22</v>
       </c>
       <c r="E303" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F303">
         <v>1</v>
       </c>
-      <c r="G303" s="1"/>
-      <c r="H303" s="2"/>
-      <c r="I303" s="4"/>
-    </row>
-    <row r="304" spans="1:9">
-      <c r="A304" s="3">
+      <c r="G303" s="3">
+        <v>12.6727</v>
+      </c>
+      <c r="H303" s="4"/>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="5">
         <v>43696</v>
       </c>
       <c r="B304" s="2">
@@ -8034,17 +8320,18 @@
         <v>21</v>
       </c>
       <c r="E304" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F304">
         <v>1</v>
       </c>
-      <c r="G304" s="1"/>
-      <c r="H304" s="2"/>
-      <c r="I304" s="4"/>
-    </row>
-    <row r="305" spans="1:9">
-      <c r="A305" s="3">
+      <c r="G304" s="3">
+        <v>12.3596</v>
+      </c>
+      <c r="H304" s="4"/>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305" s="5">
         <v>43696</v>
       </c>
       <c r="B305" s="2">
@@ -8057,17 +8344,18 @@
         <v>21</v>
       </c>
       <c r="E305" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F305">
         <v>2</v>
       </c>
-      <c r="G305" s="1"/>
-      <c r="H305" s="2"/>
-      <c r="I305" s="4"/>
-    </row>
-    <row r="306" spans="1:9">
-      <c r="A306" s="3">
+      <c r="G305" s="3">
+        <v>10.2932</v>
+      </c>
+      <c r="H305" s="4"/>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306" s="5">
         <v>43696</v>
       </c>
       <c r="B306" s="2">
@@ -8077,66 +8365,103 @@
         <v>14.1</v>
       </c>
       <c r="D306" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" t="s">
         <v>10</v>
-      </c>
-      <c r="E306" t="s">
-        <v>13</v>
       </c>
       <c r="F306">
         <v>2</v>
       </c>
-      <c r="G306" s="1"/>
-      <c r="H306" s="2"/>
-      <c r="I306" s="4"/>
+      <c r="G306" s="3">
+        <v>12.9857</v>
+      </c>
+      <c r="H306" s="4"/>
     </row>
     <row r="307" spans="1:9">
-      <c r="A307" s="3"/>
+      <c r="A307" s="5"/>
       <c r="B307" s="2"/>
-      <c r="G307" s="1"/>
-      <c r="H307" s="2"/>
-      <c r="I307" s="4"/>
+      <c r="G307" s="3"/>
+      <c r="H307" s="4"/>
+      <c r="I307" s="3"/>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="3"/>
+      <c r="A308" s="5"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="309" spans="1:2">
-      <c r="A309" s="3"/>
+    <row r="309" spans="1:9">
+      <c r="A309" s="5"/>
       <c r="B309" s="2"/>
-    </row>
-    <row r="310" spans="1:2">
+      <c r="G309" s="3"/>
+      <c r="H309" s="4"/>
+      <c r="I309" s="3"/>
+    </row>
+    <row r="310" spans="1:9">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
-    </row>
-    <row r="311" spans="2:2">
+      <c r="G310" s="3"/>
+      <c r="H310" s="4"/>
+      <c r="I310" s="3"/>
+    </row>
+    <row r="311" spans="2:9">
       <c r="B311" s="2"/>
-    </row>
-    <row r="312" spans="2:2">
+      <c r="G311" s="3"/>
+      <c r="H311" s="4"/>
+      <c r="I311" s="3"/>
+    </row>
+    <row r="312" spans="2:9">
       <c r="B312" s="2"/>
-    </row>
-    <row r="313" spans="2:2">
+      <c r="G312" s="3"/>
+      <c r="H312" s="4"/>
+      <c r="I312" s="3"/>
+    </row>
+    <row r="313" spans="2:9">
       <c r="B313" s="2"/>
-    </row>
-    <row r="314" spans="2:2">
+      <c r="G313" s="3"/>
+      <c r="H313" s="4"/>
+      <c r="I313" s="3"/>
+    </row>
+    <row r="314" spans="2:9">
       <c r="B314" s="2"/>
-    </row>
-    <row r="315" spans="2:2">
+      <c r="G314" s="3"/>
+      <c r="H314" s="4"/>
+      <c r="I314" s="3"/>
+    </row>
+    <row r="315" spans="2:9">
       <c r="B315" s="2"/>
-    </row>
-    <row r="316" spans="2:2">
+      <c r="G315" s="3"/>
+      <c r="H315" s="4"/>
+      <c r="I315" s="3"/>
+    </row>
+    <row r="316" spans="2:9">
       <c r="B316" s="2"/>
-    </row>
-    <row r="317" spans="2:2">
+      <c r="G316" s="3"/>
+      <c r="H316" s="4"/>
+      <c r="I316" s="3"/>
+    </row>
+    <row r="317" spans="2:9">
       <c r="B317" s="2"/>
-    </row>
-    <row r="318" spans="2:2">
+      <c r="G317" s="3"/>
+      <c r="H317" s="4"/>
+      <c r="I317" s="3"/>
+    </row>
+    <row r="318" spans="2:9">
       <c r="B318" s="2"/>
-    </row>
-    <row r="319" spans="2:2">
+      <c r="G318" s="3"/>
+      <c r="H318" s="4"/>
+      <c r="I318" s="3"/>
+    </row>
+    <row r="319" spans="2:9">
       <c r="B319" s="2"/>
-    </row>
-    <row r="320" spans="2:2">
+      <c r="G319" s="3"/>
+      <c r="H319" s="4"/>
+      <c r="I319" s="3"/>
+    </row>
+    <row r="320" spans="2:9">
       <c r="B320" s="2"/>
+      <c r="G320" s="3"/>
+      <c r="H320" s="4"/>
+      <c r="I320" s="3"/>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" s="2"/>
@@ -8162,7 +8487,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Letopis 2019/Data for Letopis/Гидрология южной губы/hydrology_2019.xlsx
+++ b/Letopis 2019/Data for Letopis/Гидрология южной губы/hydrology_2019.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$306</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -41,45 +44,46 @@
     <t>NA</t>
   </si>
   <si>
-    <t>с</t>
+    <t>N</t>
   </si>
   <si>
-    <t>сз</t>
+    <t>NW</t>
   </si>
   <si>
-    <t>юв</t>
+    <t>SE</t>
   </si>
   <si>
-    <t>з</t>
+    <t>W</t>
   </si>
   <si>
-    <t>ю</t>
+    <t>S</t>
   </si>
   <si>
-    <t>в</t>
+    <t>E</t>
   </si>
   <si>
-    <t>св</t>
+    <t>NE</t>
   </si>
   <si>
-    <t>юз</t>
+    <t>SW</t>
   </si>
   <si>
-    <t>вюв</t>
+    <t>ESE</t>
   </si>
   <si>
-    <t>сзз</t>
+    <t>NWW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -97,8 +101,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,6 +111,59 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,7 +177,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,104 +230,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -243,7 +247,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,175 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,11 +456,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,17 +489,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,54 +538,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,103 +570,94 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,20 +666,29 @@
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,13 +698,16 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,8 +1031,8 @@
   <sheetPr/>
   <dimension ref="A1:I322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="M297" sqref="M297"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="H283" sqref="H283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8381,9 +8388,9 @@
     <row r="307" spans="1:9">
       <c r="A307" s="5"/>
       <c r="B307" s="2"/>
-      <c r="G307" s="3"/>
+      <c r="G307" s="6"/>
       <c r="H307" s="4"/>
-      <c r="I307" s="3"/>
+      <c r="I307" s="6"/>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="5"/>
@@ -8392,76 +8399,76 @@
     <row r="309" spans="1:9">
       <c r="A309" s="5"/>
       <c r="B309" s="2"/>
-      <c r="G309" s="3"/>
+      <c r="G309" s="6"/>
       <c r="H309" s="4"/>
-      <c r="I309" s="3"/>
+      <c r="I309" s="6"/>
     </row>
     <row r="310" spans="1:9">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
-      <c r="G310" s="3"/>
+      <c r="G310" s="6"/>
       <c r="H310" s="4"/>
-      <c r="I310" s="3"/>
+      <c r="I310" s="6"/>
     </row>
     <row r="311" spans="2:9">
       <c r="B311" s="2"/>
-      <c r="G311" s="3"/>
+      <c r="G311" s="6"/>
       <c r="H311" s="4"/>
-      <c r="I311" s="3"/>
+      <c r="I311" s="6"/>
     </row>
     <row r="312" spans="2:9">
       <c r="B312" s="2"/>
-      <c r="G312" s="3"/>
+      <c r="G312" s="6"/>
       <c r="H312" s="4"/>
-      <c r="I312" s="3"/>
+      <c r="I312" s="6"/>
     </row>
     <row r="313" spans="2:9">
       <c r="B313" s="2"/>
-      <c r="G313" s="3"/>
+      <c r="G313" s="6"/>
       <c r="H313" s="4"/>
-      <c r="I313" s="3"/>
+      <c r="I313" s="6"/>
     </row>
     <row r="314" spans="2:9">
       <c r="B314" s="2"/>
-      <c r="G314" s="3"/>
+      <c r="G314" s="6"/>
       <c r="H314" s="4"/>
-      <c r="I314" s="3"/>
+      <c r="I314" s="6"/>
     </row>
     <row r="315" spans="2:9">
       <c r="B315" s="2"/>
-      <c r="G315" s="3"/>
+      <c r="G315" s="6"/>
       <c r="H315" s="4"/>
-      <c r="I315" s="3"/>
+      <c r="I315" s="6"/>
     </row>
     <row r="316" spans="2:9">
       <c r="B316" s="2"/>
-      <c r="G316" s="3"/>
+      <c r="G316" s="6"/>
       <c r="H316" s="4"/>
-      <c r="I316" s="3"/>
+      <c r="I316" s="6"/>
     </row>
     <row r="317" spans="2:9">
       <c r="B317" s="2"/>
-      <c r="G317" s="3"/>
+      <c r="G317" s="6"/>
       <c r="H317" s="4"/>
-      <c r="I317" s="3"/>
+      <c r="I317" s="6"/>
     </row>
     <row r="318" spans="2:9">
       <c r="B318" s="2"/>
-      <c r="G318" s="3"/>
+      <c r="G318" s="6"/>
       <c r="H318" s="4"/>
-      <c r="I318" s="3"/>
+      <c r="I318" s="6"/>
     </row>
     <row r="319" spans="2:9">
       <c r="B319" s="2"/>
-      <c r="G319" s="3"/>
+      <c r="G319" s="6"/>
       <c r="H319" s="4"/>
-      <c r="I319" s="3"/>
+      <c r="I319" s="6"/>
     </row>
     <row r="320" spans="2:9">
       <c r="B320" s="2"/>
-      <c r="G320" s="3"/>
+      <c r="G320" s="6"/>
       <c r="H320" s="4"/>
-      <c r="I320" s="3"/>
+      <c r="I320" s="6"/>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" s="2"/>
@@ -8470,6 +8477,9 @@
       <c r="B322" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G306">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A28:A42">
     <sortCondition ref="A28:A42"/>
   </sortState>
